--- a/docs/protocols/DMS Inspection Protocol 2021-11-15.xlsx
+++ b/docs/protocols/DMS Inspection Protocol 2021-11-15.xlsx
@@ -5,23 +5,25 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Code\smirk\docs\protocols\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\smirk\docs\protocols\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C7EEFFA-5100-4E5E-A65D-CF3B88B1D201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F28CA6E-56F7-42B6-A273-F1C53BF383BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13350" yWindow="840" windowWidth="29460" windowHeight="18570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Meeting Protocol" sheetId="1" r:id="rId1"/>
     <sheet name="Capture-Recapture Estimates" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="69">
   <si>
     <t>Document under review</t>
   </si>
@@ -39,9 +41,6 @@
   </si>
   <si>
     <t>Reviewers</t>
-  </si>
-  <si>
-    <t>P1=NAME, P2=NAME, P3=NAME, P4=NAME, P5=NAME, P6=NAME</t>
   </si>
   <si>
     <t>Checklist</t>
@@ -148,6 +147,101 @@
   </si>
   <si>
     <t>v0.9</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>DAT-BAL-REQ1</t>
+  </si>
+  <si>
+    <t>4.1.1</t>
+  </si>
+  <si>
+    <t>f.	4m/s is more like 15km/h not 20 described in the other document
+g.	Lack of 0 speed removes stationary pedestrians. 
+h.	All pedestrians are in upright position. See comment on SYS-ROB-REQ2</t>
+  </si>
+  <si>
+    <t>May we consider the priority with regards to the hazards. For example classification of male/female is of less priority than pedestrian/non-pedestrian</t>
+  </si>
+  <si>
+    <t>Balance between negative/possitive samples in the dataset?</t>
+  </si>
+  <si>
+    <t>Data distribution: should we define also "out of distribution" data for testing?</t>
+  </si>
+  <si>
+    <t>"Sufficient" is too vague.</t>
+  </si>
+  <si>
+    <t>DAT-ACC-REQ1</t>
+  </si>
+  <si>
+    <t>Remove the "sufficiently"</t>
+  </si>
+  <si>
+    <t>DAT-ACC-REQ2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clarify the purpose of this particular document. Requirements for SMIRK sounds a bit vague, and why the title would be data management? I would expect to understand what is data management in the context of smirk requirements  from reading the introduction </t>
+  </si>
+  <si>
+    <t>Accept</t>
+  </si>
+  <si>
+    <t>Fix language: The pedestrian recognition component detects pedestrians in input images based on output from the object detection provided by the radar sensor - &gt; sounds like radar gives images</t>
+  </si>
+  <si>
+    <t>Remove the SMILE and SMILE3 inconsistency.</t>
+  </si>
+  <si>
+    <t>Clarify the purpose of the matrix. The matrix is there to show how we cover the system reqts. by the data reqts. Tell the reader that it shows an overview. Clarify what the X means.</t>
+  </si>
+  <si>
+    <t>DAT-REL_REQ4: should also include other parameters related to the ODD? E.g. Environmental parameters, ego speed… Images of the road is incorrect, it should capture the entire scenario/driving situation etc.</t>
+  </si>
+  <si>
+    <t>Check</t>
+  </si>
+  <si>
+    <t>There is nothing about the placements/movement of the pedestrian (side/front/back facing (rotation), in motion, standing, sitting, etc). Feels like a mismatch.</t>
+  </si>
+  <si>
+    <t>Mismatch between requirements and the rationale. What is "comparable" what is equal share etc. Who decides what goes? Clarify this section.</t>
+  </si>
+  <si>
+    <t>Reject</t>
+  </si>
+  <si>
+    <t>This comes in a later section and is elaborated in the system test specification.</t>
+  </si>
+  <si>
+    <t>Clarify what is a class/feature in this particular case and why is should be comparable. The note below depicts the problem pretty well, but it does not state what “comparable” actually means, just what it does not mean.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This content is confusing if you read the document as arequirements specification, as introduced in the Introduction. It describes more process and solution. </t>
+  </si>
+  <si>
+    <t>i.	Is this a desired practice to generalize from one class of pedestrian to another? As you specify different classes for testing and evaluation, it might be worth describing why this has been done (rather than splitting inside the classes.</t>
+  </si>
+  <si>
+    <t>Replace desiderata with a less academic word.</t>
+  </si>
+  <si>
+    <t>We decide to follow the reference.</t>
+  </si>
+  <si>
+    <t>Fix dead hyperlinks.</t>
+  </si>
+  <si>
+    <t>P1=Thanh Bui (RISE Research Institutes of Sweden), P2=Piotr Tomaszerski (RISE Research Institutes of Sweden)</t>
+  </si>
+  <si>
+    <t>P3=Olof Lennartsson (Infotiv), P4=Elias Sonnsjö (Infotiv)</t>
+  </si>
+  <si>
+    <t>P5=Sebastian Brink (Combitech), P6=Emelie Folkesson (Combitech)</t>
   </si>
 </sst>
 </file>
@@ -398,7 +492,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -543,6 +637,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
@@ -558,39 +706,15 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlänk" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -607,7 +731,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -907,27 +1031,27 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:W109"/>
+  <dimension ref="A1:W117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="11" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Z10" sqref="Z10"/>
+      <pane ySplit="13" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q51" sqref="Q51:W51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="3.140625" customWidth="1"/>
+    <col min="1" max="2" width="3.109375" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" customWidth="1"/>
-    <col min="6" max="6" width="28.5703125" customWidth="1"/>
-    <col min="7" max="7" width="8.5703125" customWidth="1"/>
-    <col min="8" max="13" width="6.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" customWidth="1"/>
+    <col min="6" max="6" width="86.33203125" customWidth="1"/>
+    <col min="7" max="7" width="8.5546875" customWidth="1"/>
+    <col min="8" max="13" width="6.6640625" customWidth="1"/>
     <col min="14" max="16" width="3" hidden="1" customWidth="1"/>
-    <col min="17" max="23" width="9.28515625" customWidth="1"/>
+    <col min="17" max="23" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
@@ -952,27 +1076,27 @@
       <c r="V1" s="4"/>
       <c r="W1" s="4"/>
     </row>
-    <row r="2" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="49" t="s">
-        <v>37</v>
-      </c>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="47"/>
-      <c r="P2" s="47"/>
+      <c r="C2" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
       <c r="S2" s="4"/>
@@ -981,27 +1105,27 @@
       <c r="V2" s="4"/>
       <c r="W2" s="4"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
-      <c r="C3" s="48" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47"/>
+      <c r="C3" s="66" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="67" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="56"/>
+      <c r="P3" s="56"/>
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
       <c r="S3" s="4"/>
@@ -1010,27 +1134,27 @@
       <c r="V3" s="4"/>
       <c r="W3" s="4"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="48" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="50">
+      <c r="C4" s="66" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="68">
         <v>40862</v>
       </c>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
-      <c r="P4" s="47"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="56"/>
+      <c r="P4" s="56"/>
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
       <c r="S4" s="4"/>
@@ -1039,27 +1163,27 @@
       <c r="V4" s="4"/>
       <c r="W4" s="4"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="52" t="s">
+      <c r="C5" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="51" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="47"/>
-      <c r="N5" s="47"/>
-      <c r="O5" s="47"/>
-      <c r="P5" s="47"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="69" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="72"/>
+      <c r="K5" s="72"/>
+      <c r="L5" s="72"/>
+      <c r="M5" s="72"/>
+      <c r="N5" s="72"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="72"/>
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
       <c r="S5" s="4"/>
@@ -1068,27 +1192,25 @@
       <c r="V5" s="4"/>
       <c r="W5" s="4"/>
     </row>
-    <row r="6" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="52" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="51" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="7"/>
+    <row r="6" spans="1:23" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A6" s="52"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="69" t="s">
+        <v>67</v>
+      </c>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="72"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="72"/>
+      <c r="L6" s="72"/>
+      <c r="M6" s="72"/>
+      <c r="N6" s="72"/>
+      <c r="O6" s="72"/>
+      <c r="P6" s="72"/>
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
       <c r="S6" s="4"/>
@@ -1097,23 +1219,25 @@
       <c r="V6" s="4"/>
       <c r="W6" s="4"/>
     </row>
-    <row r="7" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="45"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="7"/>
+    <row r="7" spans="1:23" s="48" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A7" s="52"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="51"/>
+      <c r="L7" s="51"/>
+      <c r="M7" s="51"/>
+      <c r="N7" s="51"/>
+      <c r="O7" s="51"/>
+      <c r="P7" s="51"/>
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
       <c r="S7" s="4"/>
@@ -1122,38 +1246,27 @@
       <c r="V7" s="4"/>
       <c r="W7" s="4"/>
     </row>
-    <row r="8" spans="1:23" ht="36" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="12">
-        <f>SUM($P12:$P109)</f>
-        <v>0</v>
-      </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" s="14"/>
-      <c r="G8" s="15">
-        <f>IF(ISERR('Capture-Recapture Estimates'!$B$3), 0, 'Capture-Recapture Estimates'!$B$3)</f>
-        <v>0</v>
-      </c>
-      <c r="H8" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="I8" s="54"/>
-      <c r="J8" s="54"/>
-      <c r="K8" s="16">
-        <f>IF(ISERR('Capture-Recapture Estimates'!$B$4), 0, 'Capture-Recapture Estimates'!$B$4)</f>
-        <v>0</v>
-      </c>
-      <c r="L8" s="55" t="s">
-        <v>7</v>
-      </c>
-      <c r="M8" s="56"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="4"/>
+    <row r="8" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="70" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="69" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="56"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="7"/>
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
       <c r="S8" s="4"/>
@@ -1162,23 +1275,23 @@
       <c r="V8" s="4"/>
       <c r="W8" s="4"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A9" s="18"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="23"/>
+    <row r="9" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="45"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="7"/>
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
       <c r="S9" s="4"/>
@@ -1187,43 +1300,38 @@
       <c r="V9" s="4"/>
       <c r="W9" s="4"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A10" s="18"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="57" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="25">
-        <f>IF(ISERR('Capture-Recapture Estimates'!B12), 0, 'Capture-Recapture Estimates'!B12)</f>
-        <v>0</v>
-      </c>
-      <c r="I10" s="25">
-        <f>IF(ISERR('Capture-Recapture Estimates'!C12), 0, 'Capture-Recapture Estimates'!C12)</f>
-        <v>0</v>
-      </c>
-      <c r="J10" s="25">
-        <f>IF(ISERR('Capture-Recapture Estimates'!D12), 0, 'Capture-Recapture Estimates'!D12)</f>
-        <v>0</v>
-      </c>
-      <c r="K10" s="25">
-        <f>IF(ISERR('Capture-Recapture Estimates'!E12), 0, 'Capture-Recapture Estimates'!E12)</f>
-        <v>0</v>
-      </c>
-      <c r="L10" s="25">
-        <f>IF(ISERR('Capture-Recapture Estimates'!F12), 0, 'Capture-Recapture Estimates'!F12)</f>
-        <v>0</v>
-      </c>
-      <c r="M10" s="25">
-        <f>IF(ISERR('Capture-Recapture Estimates'!G12), 0, 'Capture-Recapture Estimates'!G12)</f>
-        <v>0</v>
-      </c>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23"/>
+    <row r="10" spans="1:23" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="12">
+        <f>SUM($P14:$P117)</f>
+        <v>13</v>
+      </c>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="14"/>
+      <c r="G10" s="15">
+        <f>IF(ISERR('Capture-Recapture Estimates'!$B$3), 0, 'Capture-Recapture Estimates'!$B$3)</f>
+        <v>18</v>
+      </c>
+      <c r="H10" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="60"/>
+      <c r="J10" s="60"/>
+      <c r="K10" s="16">
+        <f>IF(ISERR('Capture-Recapture Estimates'!$B$4), 0, 'Capture-Recapture Estimates'!$B$4)</f>
+        <v>0.41935483870967744</v>
+      </c>
+      <c r="L10" s="61" t="s">
+        <v>6</v>
+      </c>
+      <c r="M10" s="58"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
       <c r="S10" s="4"/>
@@ -1232,51 +1340,23 @@
       <c r="V10" s="4"/>
       <c r="W10" s="4"/>
     </row>
-    <row r="11" spans="1:23" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="26"/>
-      <c r="B11" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="59"/>
-      <c r="G11" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="J11" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="K11" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="L11" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="M11" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="N11" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="O11" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="P11" s="31" t="s">
-        <v>22</v>
-      </c>
+    <row r="11" spans="1:23" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
       <c r="S11" s="4"/>
@@ -1285,238 +1365,284 @@
       <c r="V11" s="4"/>
       <c r="W11" s="4"/>
     </row>
-    <row r="12" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="32"/>
-      <c r="B12" s="33">
-        <v>1</v>
-      </c>
-      <c r="C12" s="34"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="60"/>
+    <row r="12" spans="1:23" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="62" t="s">
+        <v>7</v>
+      </c>
       <c r="F12" s="56"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="35"/>
-      <c r="M12" s="35"/>
-      <c r="N12" s="36">
-        <f t="shared" ref="N12:N109" si="0">IF((SUM(H12:L12) = 1), 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="O12" s="36">
-        <f t="shared" ref="O12:O109" si="1">IF(N12, 0, 1)</f>
-        <v>1</v>
-      </c>
-      <c r="P12" s="36">
-        <f t="shared" ref="P12:P109" si="2">IF(SUM(H12:L12) &gt; 0, 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q12" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="R12" s="47"/>
-      <c r="S12" s="47"/>
-      <c r="T12" s="47"/>
-      <c r="U12" s="47"/>
-      <c r="V12" s="47"/>
-      <c r="W12" s="47"/>
-    </row>
-    <row r="13" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="32"/>
-      <c r="B13" s="33">
-        <v>2</v>
-      </c>
-      <c r="C13" s="34"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="37"/>
-      <c r="M13" s="35"/>
-      <c r="N13" s="36">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O13" s="36">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P13" s="36">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q13" s="46"/>
-      <c r="R13" s="47"/>
-      <c r="S13" s="47"/>
-      <c r="T13" s="47"/>
-      <c r="U13" s="47"/>
-      <c r="V13" s="47"/>
-      <c r="W13" s="47"/>
-    </row>
-    <row r="14" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G12" s="56"/>
+      <c r="H12" s="25">
+        <f>IF(ISERR('Capture-Recapture Estimates'!B12), 0, 'Capture-Recapture Estimates'!B12)</f>
+        <v>9.6774193548387094E-2</v>
+      </c>
+      <c r="I12" s="25">
+        <f>IF(ISERR('Capture-Recapture Estimates'!C12), 0, 'Capture-Recapture Estimates'!C12)</f>
+        <v>0.25806451612903225</v>
+      </c>
+      <c r="J12" s="25">
+        <f>IF(ISERR('Capture-Recapture Estimates'!D12), 0, 'Capture-Recapture Estimates'!D12)</f>
+        <v>0.12903225806451613</v>
+      </c>
+      <c r="K12" s="25">
+        <f>IF(ISERR('Capture-Recapture Estimates'!E12), 0, 'Capture-Recapture Estimates'!E12)</f>
+        <v>0.16129032258064516</v>
+      </c>
+      <c r="L12" s="25">
+        <f>IF(ISERR('Capture-Recapture Estimates'!F12), 0, 'Capture-Recapture Estimates'!F12)</f>
+        <v>6.4516129032258063E-2</v>
+      </c>
+      <c r="M12" s="25">
+        <f>IF(ISERR('Capture-Recapture Estimates'!G12), 0, 'Capture-Recapture Estimates'!G12)</f>
+        <v>0</v>
+      </c>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
+    </row>
+    <row r="13" spans="1:23" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A13" s="26"/>
+      <c r="B13" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="63" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="64"/>
+      <c r="G13" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="J13" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="K13" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="L13" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="M13" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="N13" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="O13" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="P13" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4"/>
+    </row>
+    <row r="14" spans="1:23" ht="110.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="32"/>
       <c r="B14" s="33">
-        <v>3</v>
-      </c>
-      <c r="C14" s="34"/>
+        <v>1</v>
+      </c>
+      <c r="C14" s="34" t="s">
+        <v>38</v>
+      </c>
       <c r="D14" s="33"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="35"/>
+      <c r="E14" s="57" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="58"/>
+      <c r="G14" s="35" t="s">
+        <v>50</v>
+      </c>
       <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
+      <c r="I14" s="35">
+        <v>1</v>
+      </c>
       <c r="J14" s="35"/>
-      <c r="K14" s="37"/>
-      <c r="L14" s="37"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
       <c r="M14" s="35"/>
       <c r="N14" s="36">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" ref="N14:N117" si="0">IF((SUM(H14:L14) = 1), 1, 0)</f>
+        <v>1</v>
       </c>
       <c r="O14" s="36">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" ref="O14:O117" si="1">IF(N14, 0, 1)</f>
+        <v>0</v>
       </c>
       <c r="P14" s="36">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q14" s="46"/>
-      <c r="R14" s="47"/>
-      <c r="S14" s="47"/>
-      <c r="T14" s="47"/>
-      <c r="U14" s="47"/>
-      <c r="V14" s="47"/>
-      <c r="W14" s="47"/>
-    </row>
-    <row r="15" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="32"/>
-      <c r="B15" s="33">
-        <v>4</v>
-      </c>
-      <c r="C15" s="34"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="56"/>
-      <c r="G15" s="37"/>
+        <f t="shared" ref="P14:P117" si="2">IF(SUM(H14:L14) &gt; 0, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="Q14" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="R14" s="56"/>
+      <c r="S14" s="56"/>
+      <c r="T14" s="56"/>
+      <c r="U14" s="56"/>
+      <c r="V14" s="56"/>
+      <c r="W14" s="56"/>
+    </row>
+    <row r="15" spans="1:23" s="47" customFormat="1" ht="110.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="46"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="39"/>
+      <c r="E15" s="53" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" s="54"/>
+      <c r="G15" s="37" t="s">
+        <v>50</v>
+      </c>
       <c r="H15" s="37"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="37">
+        <v>1</v>
+      </c>
       <c r="L15" s="37"/>
-      <c r="M15" s="35"/>
-      <c r="N15" s="36">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O15" s="36">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P15" s="36">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q15" s="46"/>
-      <c r="R15" s="47"/>
-      <c r="S15" s="47"/>
-      <c r="T15" s="47"/>
-      <c r="U15" s="47"/>
-      <c r="V15" s="47"/>
-      <c r="W15" s="47"/>
-    </row>
-    <row r="16" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M15" s="37"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="36"/>
+      <c r="Q15" s="49"/>
+      <c r="R15" s="49"/>
+      <c r="S15" s="49"/>
+      <c r="T15" s="49"/>
+      <c r="U15" s="49"/>
+      <c r="V15" s="49"/>
+      <c r="W15" s="49"/>
+    </row>
+    <row r="16" spans="1:23" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="32"/>
       <c r="B16" s="33">
-        <v>5</v>
-      </c>
-      <c r="C16" s="34"/>
+        <v>2</v>
+      </c>
+      <c r="C16" s="34">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="D16" s="33"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="35"/>
+      <c r="E16" s="57" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" s="58"/>
+      <c r="G16" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35">
+        <v>1</v>
+      </c>
       <c r="J16" s="35"/>
       <c r="K16" s="35"/>
-      <c r="L16" s="35"/>
+      <c r="L16" s="37"/>
       <c r="M16" s="35"/>
       <c r="N16" s="36">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O16" s="36">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16" s="36">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q16" s="46"/>
-      <c r="R16" s="47"/>
-      <c r="S16" s="47"/>
-      <c r="T16" s="47"/>
-      <c r="U16" s="47"/>
-      <c r="V16" s="47"/>
-      <c r="W16" s="47"/>
-    </row>
-    <row r="17" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="32"/>
-      <c r="B17" s="33">
-        <v>6</v>
-      </c>
-      <c r="C17" s="34"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="35"/>
+        <v>1</v>
+      </c>
+      <c r="Q16" s="55"/>
+      <c r="R16" s="55"/>
+      <c r="S16" s="55"/>
+      <c r="T16" s="55"/>
+      <c r="U16" s="55"/>
+      <c r="V16" s="55"/>
+      <c r="W16" s="55"/>
+    </row>
+    <row r="17" spans="1:23" s="47" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="46"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="38">
+        <v>2</v>
+      </c>
+      <c r="D17" s="39"/>
+      <c r="E17" s="53" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" s="54"/>
+      <c r="G17" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="H17" s="37"/>
       <c r="I17" s="37"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="35"/>
-      <c r="M17" s="35"/>
-      <c r="N17" s="36">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O17" s="36">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P17" s="36">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q17" s="46"/>
-      <c r="R17" s="47"/>
-      <c r="S17" s="47"/>
-      <c r="T17" s="47"/>
-      <c r="U17" s="47"/>
-      <c r="V17" s="47"/>
-      <c r="W17" s="47"/>
-    </row>
-    <row r="18" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J17" s="37">
+        <v>1</v>
+      </c>
+      <c r="K17" s="37"/>
+      <c r="L17" s="37"/>
+      <c r="M17" s="37"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="36"/>
+      <c r="Q17" s="49"/>
+      <c r="R17" s="49"/>
+      <c r="S17" s="49"/>
+      <c r="T17" s="49"/>
+      <c r="U17" s="49"/>
+      <c r="V17" s="49"/>
+      <c r="W17" s="49"/>
+    </row>
+    <row r="18" spans="1:23" ht="55.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="32"/>
       <c r="B18" s="33">
-        <v>7</v>
-      </c>
-      <c r="C18" s="34"/>
+        <v>3</v>
+      </c>
+      <c r="C18" s="34">
+        <v>2.1</v>
+      </c>
       <c r="D18" s="33"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="37"/>
+      <c r="E18" s="57" t="s">
+        <v>54</v>
+      </c>
+      <c r="F18" s="58"/>
+      <c r="G18" s="35" t="s">
+        <v>50</v>
+      </c>
       <c r="H18" s="35"/>
-      <c r="I18" s="37"/>
+      <c r="I18" s="35">
+        <v>1</v>
+      </c>
       <c r="J18" s="35"/>
-      <c r="K18" s="35"/>
+      <c r="K18" s="37">
+        <v>1</v>
+      </c>
       <c r="L18" s="37"/>
       <c r="M18" s="35"/>
       <c r="N18" s="36">
@@ -1529,463 +1655,525 @@
       </c>
       <c r="P18" s="36">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q18" s="46"/>
-      <c r="R18" s="47"/>
-      <c r="S18" s="47"/>
-      <c r="T18" s="47"/>
-      <c r="U18" s="47"/>
-      <c r="V18" s="47"/>
-      <c r="W18" s="47"/>
-    </row>
-    <row r="19" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="32"/>
-      <c r="B19" s="33">
-        <v>8</v>
-      </c>
-      <c r="C19" s="38"/>
+        <v>1</v>
+      </c>
+      <c r="Q18" s="49"/>
+      <c r="R18" s="49"/>
+      <c r="S18" s="49"/>
+      <c r="T18" s="49"/>
+      <c r="U18" s="49"/>
+      <c r="V18" s="49"/>
+      <c r="W18" s="49"/>
+    </row>
+    <row r="19" spans="1:23" s="47" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="46"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="38">
+        <v>2.2000000000000002</v>
+      </c>
       <c r="D19" s="39"/>
-      <c r="E19" s="60"/>
-      <c r="F19" s="56"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="37"/>
+      <c r="E19" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="54"/>
+      <c r="G19" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="37">
+        <v>1</v>
+      </c>
+      <c r="K19" s="37">
+        <v>1</v>
+      </c>
       <c r="L19" s="37"/>
-      <c r="M19" s="35"/>
-      <c r="N19" s="36">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O19" s="36">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P19" s="36">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q19" s="46"/>
-      <c r="R19" s="47"/>
-      <c r="S19" s="47"/>
-      <c r="T19" s="47"/>
-      <c r="U19" s="47"/>
-      <c r="V19" s="47"/>
-      <c r="W19" s="47"/>
-    </row>
-    <row r="20" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M19" s="37"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="36"/>
+      <c r="P19" s="36"/>
+      <c r="Q19" s="49"/>
+      <c r="R19" s="49"/>
+      <c r="S19" s="49"/>
+      <c r="T19" s="49"/>
+      <c r="U19" s="49"/>
+      <c r="V19" s="49"/>
+      <c r="W19" s="49"/>
+    </row>
+    <row r="20" spans="1:23" ht="47.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="32"/>
       <c r="B20" s="33">
-        <v>9</v>
-      </c>
-      <c r="C20" s="38"/>
+        <v>4</v>
+      </c>
+      <c r="C20" s="38">
+        <v>2.2000000000000002</v>
+      </c>
       <c r="D20" s="39"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="35"/>
+      <c r="E20" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="F20" s="58"/>
+      <c r="G20" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="H20" s="37"/>
+      <c r="I20" s="35">
+        <v>1</v>
+      </c>
       <c r="J20" s="35"/>
       <c r="K20" s="35"/>
       <c r="L20" s="37"/>
       <c r="M20" s="35"/>
       <c r="N20" s="36">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O20" s="36">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P20" s="36">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q20" s="46"/>
-      <c r="R20" s="47"/>
-      <c r="S20" s="47"/>
-      <c r="T20" s="47"/>
-      <c r="U20" s="47"/>
-      <c r="V20" s="47"/>
-      <c r="W20" s="47"/>
-    </row>
-    <row r="21" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="32"/>
-      <c r="B21" s="33">
-        <v>10</v>
-      </c>
-      <c r="C21" s="38"/>
+        <v>1</v>
+      </c>
+      <c r="Q20" s="49"/>
+      <c r="R20" s="49"/>
+      <c r="S20" s="49"/>
+      <c r="T20" s="49"/>
+      <c r="U20" s="49"/>
+      <c r="V20" s="49"/>
+      <c r="W20" s="49"/>
+    </row>
+    <row r="21" spans="1:23" s="47" customFormat="1" ht="47.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="46"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="38">
+        <v>2.2999999999999998</v>
+      </c>
       <c r="D21" s="39"/>
-      <c r="E21" s="60"/>
-      <c r="F21" s="56"/>
-      <c r="G21" s="37"/>
+      <c r="E21" s="53" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21" s="54"/>
+      <c r="G21" s="37" t="s">
+        <v>50</v>
+      </c>
       <c r="H21" s="37"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="37"/>
-      <c r="K21" s="37"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="37">
+        <v>1</v>
+      </c>
+      <c r="K21" s="37">
+        <v>1</v>
+      </c>
       <c r="L21" s="37"/>
-      <c r="M21" s="35"/>
-      <c r="N21" s="36">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O21" s="36">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P21" s="36">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q21" s="46"/>
-      <c r="R21" s="47"/>
-      <c r="S21" s="47"/>
-      <c r="T21" s="47"/>
-      <c r="U21" s="47"/>
-      <c r="V21" s="47"/>
-      <c r="W21" s="47"/>
-    </row>
-    <row r="22" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M21" s="37"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="36"/>
+      <c r="P21" s="36"/>
+      <c r="Q21" s="49"/>
+      <c r="R21" s="49"/>
+      <c r="S21" s="49"/>
+      <c r="T21" s="49"/>
+      <c r="U21" s="49"/>
+      <c r="V21" s="49"/>
+      <c r="W21" s="49"/>
+    </row>
+    <row r="22" spans="1:23" ht="86.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="32"/>
       <c r="B22" s="33">
-        <v>11</v>
-      </c>
-      <c r="C22" s="38"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="60"/>
-      <c r="F22" s="56"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="37"/>
-      <c r="K22" s="37"/>
-      <c r="L22" s="37"/>
+        <v>5</v>
+      </c>
+      <c r="C22" s="34">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D22" s="33"/>
+      <c r="E22" s="57" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" s="58"/>
+      <c r="G22" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="H22" s="37">
+        <v>1</v>
+      </c>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="35"/>
       <c r="M22" s="35"/>
       <c r="N22" s="36">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O22" s="36">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P22" s="36">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q22" s="46"/>
-      <c r="R22" s="47"/>
-      <c r="S22" s="47"/>
-      <c r="T22" s="47"/>
-      <c r="U22" s="47"/>
-      <c r="V22" s="47"/>
-      <c r="W22" s="47"/>
-    </row>
-    <row r="23" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="49"/>
+      <c r="R22" s="49"/>
+      <c r="S22" s="49"/>
+      <c r="T22" s="49"/>
+      <c r="U22" s="49"/>
+      <c r="V22" s="49"/>
+      <c r="W22" s="49"/>
+    </row>
+    <row r="23" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="32"/>
       <c r="B23" s="33">
-        <v>12</v>
-      </c>
-      <c r="C23" s="38"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="60"/>
-      <c r="F23" s="56"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="37"/>
+        <v>6</v>
+      </c>
+      <c r="C23" s="34">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D23" s="33"/>
+      <c r="E23" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" s="58"/>
+      <c r="G23" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="H23" s="35">
+        <v>1</v>
+      </c>
       <c r="I23" s="37"/>
-      <c r="J23" s="37"/>
-      <c r="K23" s="37"/>
-      <c r="L23" s="37"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="35"/>
       <c r="M23" s="35"/>
       <c r="N23" s="36">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O23" s="36">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P23" s="36">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q23" s="46"/>
-      <c r="R23" s="47"/>
-      <c r="S23" s="47"/>
-      <c r="T23" s="47"/>
-      <c r="U23" s="47"/>
-      <c r="V23" s="47"/>
-      <c r="W23" s="47"/>
-    </row>
-    <row r="24" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="55"/>
+      <c r="R23" s="55"/>
+      <c r="S23" s="55"/>
+      <c r="T23" s="55"/>
+      <c r="U23" s="55"/>
+      <c r="V23" s="55"/>
+      <c r="W23" s="55"/>
+    </row>
+    <row r="24" spans="1:23" ht="94.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="32"/>
       <c r="B24" s="33">
-        <v>13</v>
-      </c>
-      <c r="C24" s="38"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="60"/>
-      <c r="F24" s="56"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="37"/>
+        <v>7</v>
+      </c>
+      <c r="C24" s="34">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D24" s="33"/>
+      <c r="E24" s="57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" s="58"/>
+      <c r="G24" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="H24" s="35">
+        <v>1</v>
+      </c>
       <c r="I24" s="37"/>
-      <c r="J24" s="37"/>
-      <c r="K24" s="37"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="35"/>
       <c r="L24" s="37"/>
       <c r="M24" s="35"/>
       <c r="N24" s="36">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O24" s="36">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P24" s="36">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q24" s="46"/>
-      <c r="R24" s="47"/>
-      <c r="S24" s="47"/>
-      <c r="T24" s="47"/>
-      <c r="U24" s="47"/>
-      <c r="V24" s="47"/>
-      <c r="W24" s="47"/>
-    </row>
-    <row r="25" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="R24" s="55"/>
+      <c r="S24" s="55"/>
+      <c r="T24" s="55"/>
+      <c r="U24" s="55"/>
+      <c r="V24" s="55"/>
+      <c r="W24" s="55"/>
+    </row>
+    <row r="25" spans="1:23" ht="73.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="32"/>
       <c r="B25" s="33">
-        <v>14</v>
-      </c>
-      <c r="C25" s="38"/>
+        <v>8</v>
+      </c>
+      <c r="C25" s="38" t="s">
+        <v>39</v>
+      </c>
       <c r="D25" s="39"/>
-      <c r="E25" s="60"/>
-      <c r="F25" s="56"/>
-      <c r="G25" s="37"/>
+      <c r="E25" s="57" t="s">
+        <v>60</v>
+      </c>
+      <c r="F25" s="58"/>
+      <c r="G25" s="37" t="s">
+        <v>55</v>
+      </c>
       <c r="H25" s="37"/>
-      <c r="I25" s="37"/>
-      <c r="J25" s="37"/>
+      <c r="I25" s="37">
+        <v>1</v>
+      </c>
+      <c r="J25" s="35"/>
       <c r="K25" s="37"/>
       <c r="L25" s="37"/>
       <c r="M25" s="35"/>
       <c r="N25" s="36">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O25" s="36">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P25" s="36">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q25" s="46"/>
-      <c r="R25" s="47"/>
-      <c r="S25" s="47"/>
-      <c r="T25" s="47"/>
-      <c r="U25" s="47"/>
-      <c r="V25" s="47"/>
-      <c r="W25" s="47"/>
-    </row>
-    <row r="26" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="32"/>
-      <c r="B26" s="33">
-        <v>15</v>
-      </c>
-      <c r="C26" s="38"/>
+        <v>1</v>
+      </c>
+      <c r="Q25" s="55"/>
+      <c r="R25" s="55"/>
+      <c r="S25" s="55"/>
+      <c r="T25" s="55"/>
+      <c r="U25" s="55"/>
+      <c r="V25" s="55"/>
+      <c r="W25" s="55"/>
+    </row>
+    <row r="26" spans="1:23" s="47" customFormat="1" ht="73.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="46"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="38" t="s">
+        <v>46</v>
+      </c>
       <c r="D26" s="39"/>
-      <c r="E26" s="60"/>
-      <c r="F26" s="56"/>
-      <c r="G26" s="37"/>
+      <c r="E26" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="F26" s="54"/>
+      <c r="G26" s="37" t="s">
+        <v>50</v>
+      </c>
       <c r="H26" s="37"/>
       <c r="I26" s="37"/>
       <c r="J26" s="37"/>
-      <c r="K26" s="37"/>
+      <c r="K26" s="37">
+        <v>1</v>
+      </c>
       <c r="L26" s="37"/>
-      <c r="M26" s="35"/>
-      <c r="N26" s="36">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O26" s="36">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P26" s="36">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q26" s="46"/>
-      <c r="R26" s="47"/>
-      <c r="S26" s="47"/>
-      <c r="T26" s="47"/>
-      <c r="U26" s="47"/>
-      <c r="V26" s="47"/>
-      <c r="W26" s="47"/>
-    </row>
-    <row r="27" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="32"/>
-      <c r="B27" s="33">
-        <v>16</v>
-      </c>
-      <c r="C27" s="38"/>
+      <c r="M26" s="37"/>
+      <c r="N26" s="36"/>
+      <c r="O26" s="36"/>
+      <c r="P26" s="36"/>
+      <c r="Q26" s="50"/>
+      <c r="R26" s="49"/>
+      <c r="S26" s="49"/>
+      <c r="T26" s="49"/>
+      <c r="U26" s="49"/>
+      <c r="V26" s="49"/>
+      <c r="W26" s="49"/>
+    </row>
+    <row r="27" spans="1:23" s="47" customFormat="1" ht="73.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="46"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="38" t="s">
+        <v>48</v>
+      </c>
       <c r="D27" s="39"/>
-      <c r="E27" s="60"/>
-      <c r="F27" s="56"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="54"/>
       <c r="G27" s="37"/>
       <c r="H27" s="37"/>
       <c r="I27" s="37"/>
       <c r="J27" s="37"/>
       <c r="K27" s="37"/>
       <c r="L27" s="37"/>
-      <c r="M27" s="35"/>
-      <c r="N27" s="36">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O27" s="36">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P27" s="36">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q27" s="46"/>
-      <c r="R27" s="47"/>
-      <c r="S27" s="47"/>
-      <c r="T27" s="47"/>
-      <c r="U27" s="47"/>
-      <c r="V27" s="47"/>
-      <c r="W27" s="47"/>
-    </row>
-    <row r="28" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M27" s="37"/>
+      <c r="N27" s="36"/>
+      <c r="O27" s="36"/>
+      <c r="P27" s="36"/>
+      <c r="Q27" s="50"/>
+      <c r="R27" s="49"/>
+      <c r="S27" s="49"/>
+      <c r="T27" s="49"/>
+      <c r="U27" s="49"/>
+      <c r="V27" s="49"/>
+      <c r="W27" s="49"/>
+    </row>
+    <row r="28" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="32"/>
       <c r="B28" s="33">
-        <v>17</v>
-      </c>
-      <c r="C28" s="38"/>
+        <v>9</v>
+      </c>
+      <c r="C28" s="38">
+        <v>4</v>
+      </c>
       <c r="D28" s="39"/>
-      <c r="E28" s="60"/>
-      <c r="F28" s="56"/>
-      <c r="G28" s="37"/>
+      <c r="E28" s="57" t="s">
+        <v>61</v>
+      </c>
+      <c r="F28" s="58"/>
+      <c r="G28" s="37" t="s">
+        <v>55</v>
+      </c>
       <c r="H28" s="37"/>
-      <c r="I28" s="37"/>
-      <c r="J28" s="37"/>
-      <c r="K28" s="37"/>
+      <c r="I28" s="37">
+        <v>1</v>
+      </c>
+      <c r="J28" s="35"/>
+      <c r="K28" s="35"/>
       <c r="L28" s="37"/>
       <c r="M28" s="35"/>
       <c r="N28" s="36">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O28" s="36">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P28" s="36">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q28" s="46"/>
-      <c r="R28" s="47"/>
-      <c r="S28" s="47"/>
-      <c r="T28" s="47"/>
-      <c r="U28" s="47"/>
-      <c r="V28" s="47"/>
-      <c r="W28" s="47"/>
-    </row>
-    <row r="29" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="55"/>
+      <c r="R28" s="55"/>
+      <c r="S28" s="55"/>
+      <c r="T28" s="55"/>
+      <c r="U28" s="55"/>
+      <c r="V28" s="55"/>
+      <c r="W28" s="55"/>
+    </row>
+    <row r="29" spans="1:23" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="32"/>
       <c r="B29" s="33">
-        <v>18</v>
-      </c>
-      <c r="C29" s="38"/>
+        <v>10</v>
+      </c>
+      <c r="C29" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="D29" s="39"/>
-      <c r="E29" s="60"/>
-      <c r="F29" s="56"/>
-      <c r="G29" s="37"/>
+      <c r="E29" s="57" t="s">
+        <v>41</v>
+      </c>
+      <c r="F29" s="58"/>
+      <c r="G29" s="37" t="s">
+        <v>50</v>
+      </c>
       <c r="H29" s="37"/>
-      <c r="I29" s="37"/>
+      <c r="I29" s="37">
+        <v>1</v>
+      </c>
       <c r="J29" s="37"/>
       <c r="K29" s="37"/>
       <c r="L29" s="37"/>
       <c r="M29" s="35"/>
       <c r="N29" s="36">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O29" s="36">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P29" s="36">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q29" s="46"/>
-      <c r="R29" s="47"/>
-      <c r="S29" s="47"/>
-      <c r="T29" s="47"/>
-      <c r="U29" s="47"/>
-      <c r="V29" s="47"/>
-      <c r="W29" s="47"/>
-    </row>
-    <row r="30" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="55"/>
+      <c r="R29" s="55"/>
+      <c r="S29" s="55"/>
+      <c r="T29" s="55"/>
+      <c r="U29" s="55"/>
+      <c r="V29" s="55"/>
+      <c r="W29" s="55"/>
+    </row>
+    <row r="30" spans="1:23" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="32"/>
       <c r="B30" s="33">
-        <v>19</v>
-      </c>
-      <c r="C30" s="38"/>
+        <v>11</v>
+      </c>
+      <c r="C30" s="38">
+        <v>4.3</v>
+      </c>
       <c r="D30" s="39"/>
-      <c r="E30" s="60"/>
-      <c r="F30" s="56"/>
-      <c r="G30" s="37"/>
+      <c r="E30" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="F30" s="54"/>
+      <c r="G30" s="37" t="s">
+        <v>55</v>
+      </c>
       <c r="H30" s="37"/>
-      <c r="I30" s="37"/>
+      <c r="I30" s="37">
+        <v>1</v>
+      </c>
       <c r="J30" s="37"/>
       <c r="K30" s="37"/>
       <c r="L30" s="37"/>
       <c r="M30" s="35"/>
       <c r="N30" s="36">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O30" s="36">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P30" s="36">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q30" s="46"/>
-      <c r="R30" s="47"/>
-      <c r="S30" s="47"/>
-      <c r="T30" s="47"/>
-      <c r="U30" s="47"/>
-      <c r="V30" s="47"/>
-      <c r="W30" s="47"/>
-    </row>
-    <row r="31" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="55"/>
+      <c r="R30" s="55"/>
+      <c r="S30" s="55"/>
+      <c r="T30" s="55"/>
+      <c r="U30" s="55"/>
+      <c r="V30" s="55"/>
+      <c r="W30" s="55"/>
+    </row>
+    <row r="31" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="32"/>
       <c r="B31" s="33">
-        <v>20</v>
-      </c>
-      <c r="C31" s="38"/>
+        <v>12</v>
+      </c>
+      <c r="C31" s="38" t="s">
+        <v>38</v>
+      </c>
       <c r="D31" s="39"/>
-      <c r="E31" s="60"/>
-      <c r="F31" s="56"/>
-      <c r="G31" s="37"/>
+      <c r="E31" s="57" t="s">
+        <v>63</v>
+      </c>
+      <c r="F31" s="58"/>
+      <c r="G31" s="37" t="s">
+        <v>58</v>
+      </c>
       <c r="H31" s="37"/>
       <c r="I31" s="37"/>
-      <c r="J31" s="37"/>
+      <c r="J31" s="37">
+        <v>1</v>
+      </c>
       <c r="K31" s="37"/>
-      <c r="L31" s="37"/>
+      <c r="L31" s="37">
+        <v>1</v>
+      </c>
       <c r="M31" s="35"/>
       <c r="N31" s="36">
         <f t="shared" si="0"/>
@@ -1997,61 +2185,71 @@
       </c>
       <c r="P31" s="36">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q31" s="46"/>
-      <c r="R31" s="47"/>
-      <c r="S31" s="47"/>
-      <c r="T31" s="47"/>
-      <c r="U31" s="47"/>
-      <c r="V31" s="47"/>
-      <c r="W31" s="47"/>
-    </row>
-    <row r="32" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="R31" s="55"/>
+      <c r="S31" s="55"/>
+      <c r="T31" s="55"/>
+      <c r="U31" s="55"/>
+      <c r="V31" s="55"/>
+      <c r="W31" s="55"/>
+    </row>
+    <row r="32" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="32"/>
       <c r="B32" s="33">
-        <v>21</v>
-      </c>
-      <c r="C32" s="38"/>
+        <v>13</v>
+      </c>
+      <c r="C32" s="38" t="s">
+        <v>38</v>
+      </c>
       <c r="D32" s="39"/>
-      <c r="E32" s="60"/>
-      <c r="F32" s="56"/>
-      <c r="G32" s="37"/>
+      <c r="E32" s="57" t="s">
+        <v>65</v>
+      </c>
+      <c r="F32" s="58"/>
+      <c r="G32" s="37" t="s">
+        <v>50</v>
+      </c>
       <c r="H32" s="37"/>
       <c r="I32" s="37"/>
       <c r="J32" s="37"/>
       <c r="K32" s="37"/>
-      <c r="L32" s="37"/>
+      <c r="L32" s="37">
+        <v>1</v>
+      </c>
       <c r="M32" s="35"/>
       <c r="N32" s="36">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O32" s="36">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P32" s="36">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q32" s="46"/>
-      <c r="R32" s="47"/>
-      <c r="S32" s="47"/>
-      <c r="T32" s="47"/>
-      <c r="U32" s="47"/>
-      <c r="V32" s="47"/>
-      <c r="W32" s="47"/>
-    </row>
-    <row r="33" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="55"/>
+      <c r="R32" s="55"/>
+      <c r="S32" s="55"/>
+      <c r="T32" s="55"/>
+      <c r="U32" s="55"/>
+      <c r="V32" s="55"/>
+      <c r="W32" s="55"/>
+    </row>
+    <row r="33" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="32"/>
       <c r="B33" s="33">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C33" s="38"/>
       <c r="D33" s="39"/>
-      <c r="E33" s="60"/>
-      <c r="F33" s="56"/>
+      <c r="E33" s="57"/>
+      <c r="F33" s="58"/>
       <c r="G33" s="37"/>
       <c r="H33" s="37"/>
       <c r="I33" s="37"/>
@@ -2071,23 +2269,23 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q33" s="46"/>
-      <c r="R33" s="47"/>
-      <c r="S33" s="47"/>
-      <c r="T33" s="47"/>
-      <c r="U33" s="47"/>
-      <c r="V33" s="47"/>
-      <c r="W33" s="47"/>
-    </row>
-    <row r="34" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q33" s="55"/>
+      <c r="R33" s="55"/>
+      <c r="S33" s="55"/>
+      <c r="T33" s="55"/>
+      <c r="U33" s="55"/>
+      <c r="V33" s="55"/>
+      <c r="W33" s="55"/>
+    </row>
+    <row r="34" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="32"/>
       <c r="B34" s="33">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C34" s="38"/>
       <c r="D34" s="39"/>
-      <c r="E34" s="60"/>
-      <c r="F34" s="56"/>
+      <c r="E34" s="57"/>
+      <c r="F34" s="58"/>
       <c r="G34" s="37"/>
       <c r="H34" s="37"/>
       <c r="I34" s="37"/>
@@ -2107,23 +2305,23 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q34" s="46"/>
-      <c r="R34" s="47"/>
-      <c r="S34" s="47"/>
-      <c r="T34" s="47"/>
-      <c r="U34" s="47"/>
-      <c r="V34" s="47"/>
-      <c r="W34" s="47"/>
-    </row>
-    <row r="35" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q34" s="55"/>
+      <c r="R34" s="55"/>
+      <c r="S34" s="55"/>
+      <c r="T34" s="55"/>
+      <c r="U34" s="55"/>
+      <c r="V34" s="55"/>
+      <c r="W34" s="55"/>
+    </row>
+    <row r="35" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="32"/>
       <c r="B35" s="33">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C35" s="38"/>
       <c r="D35" s="39"/>
-      <c r="E35" s="60"/>
-      <c r="F35" s="56"/>
+      <c r="E35" s="57"/>
+      <c r="F35" s="58"/>
       <c r="G35" s="37"/>
       <c r="H35" s="37"/>
       <c r="I35" s="37"/>
@@ -2143,23 +2341,23 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q35" s="46"/>
-      <c r="R35" s="47"/>
-      <c r="S35" s="47"/>
-      <c r="T35" s="47"/>
-      <c r="U35" s="47"/>
-      <c r="V35" s="47"/>
-      <c r="W35" s="47"/>
-    </row>
-    <row r="36" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q35" s="55"/>
+      <c r="R35" s="55"/>
+      <c r="S35" s="55"/>
+      <c r="T35" s="55"/>
+      <c r="U35" s="55"/>
+      <c r="V35" s="55"/>
+      <c r="W35" s="55"/>
+    </row>
+    <row r="36" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="32"/>
       <c r="B36" s="33">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C36" s="38"/>
       <c r="D36" s="39"/>
-      <c r="E36" s="60"/>
-      <c r="F36" s="56"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="58"/>
       <c r="G36" s="37"/>
       <c r="H36" s="37"/>
       <c r="I36" s="37"/>
@@ -2179,23 +2377,23 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q36" s="46"/>
-      <c r="R36" s="47"/>
-      <c r="S36" s="47"/>
-      <c r="T36" s="47"/>
-      <c r="U36" s="47"/>
-      <c r="V36" s="47"/>
-      <c r="W36" s="47"/>
-    </row>
-    <row r="37" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q36" s="55"/>
+      <c r="R36" s="55"/>
+      <c r="S36" s="55"/>
+      <c r="T36" s="55"/>
+      <c r="U36" s="55"/>
+      <c r="V36" s="55"/>
+      <c r="W36" s="55"/>
+    </row>
+    <row r="37" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="32"/>
       <c r="B37" s="33">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C37" s="38"/>
       <c r="D37" s="39"/>
-      <c r="E37" s="60"/>
-      <c r="F37" s="56"/>
+      <c r="E37" s="57"/>
+      <c r="F37" s="58"/>
       <c r="G37" s="37"/>
       <c r="H37" s="37"/>
       <c r="I37" s="37"/>
@@ -2215,23 +2413,23 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q37" s="46"/>
-      <c r="R37" s="47"/>
-      <c r="S37" s="47"/>
-      <c r="T37" s="47"/>
-      <c r="U37" s="47"/>
-      <c r="V37" s="47"/>
-      <c r="W37" s="47"/>
-    </row>
-    <row r="38" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q37" s="55"/>
+      <c r="R37" s="55"/>
+      <c r="S37" s="55"/>
+      <c r="T37" s="55"/>
+      <c r="U37" s="55"/>
+      <c r="V37" s="55"/>
+      <c r="W37" s="55"/>
+    </row>
+    <row r="38" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="32"/>
       <c r="B38" s="33">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C38" s="38"/>
       <c r="D38" s="39"/>
-      <c r="E38" s="60"/>
-      <c r="F38" s="56"/>
+      <c r="E38" s="57"/>
+      <c r="F38" s="58"/>
       <c r="G38" s="37"/>
       <c r="H38" s="37"/>
       <c r="I38" s="37"/>
@@ -2251,23 +2449,23 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q38" s="46"/>
-      <c r="R38" s="47"/>
-      <c r="S38" s="47"/>
-      <c r="T38" s="47"/>
-      <c r="U38" s="47"/>
-      <c r="V38" s="47"/>
-      <c r="W38" s="47"/>
-    </row>
-    <row r="39" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q38" s="55"/>
+      <c r="R38" s="55"/>
+      <c r="S38" s="55"/>
+      <c r="T38" s="55"/>
+      <c r="U38" s="55"/>
+      <c r="V38" s="55"/>
+      <c r="W38" s="55"/>
+    </row>
+    <row r="39" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="32"/>
       <c r="B39" s="33">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C39" s="38"/>
       <c r="D39" s="39"/>
-      <c r="E39" s="60"/>
-      <c r="F39" s="56"/>
+      <c r="E39" s="57"/>
+      <c r="F39" s="58"/>
       <c r="G39" s="37"/>
       <c r="H39" s="37"/>
       <c r="I39" s="37"/>
@@ -2287,23 +2485,23 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q39" s="46"/>
-      <c r="R39" s="47"/>
-      <c r="S39" s="47"/>
-      <c r="T39" s="47"/>
-      <c r="U39" s="47"/>
-      <c r="V39" s="47"/>
-      <c r="W39" s="47"/>
-    </row>
-    <row r="40" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q39" s="55"/>
+      <c r="R39" s="55"/>
+      <c r="S39" s="55"/>
+      <c r="T39" s="55"/>
+      <c r="U39" s="55"/>
+      <c r="V39" s="55"/>
+      <c r="W39" s="55"/>
+    </row>
+    <row r="40" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="32"/>
       <c r="B40" s="33">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C40" s="38"/>
       <c r="D40" s="39"/>
-      <c r="E40" s="60"/>
-      <c r="F40" s="56"/>
+      <c r="E40" s="57"/>
+      <c r="F40" s="58"/>
       <c r="G40" s="37"/>
       <c r="H40" s="37"/>
       <c r="I40" s="37"/>
@@ -2323,23 +2521,23 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q40" s="46"/>
-      <c r="R40" s="47"/>
-      <c r="S40" s="47"/>
-      <c r="T40" s="47"/>
-      <c r="U40" s="47"/>
-      <c r="V40" s="47"/>
-      <c r="W40" s="47"/>
-    </row>
-    <row r="41" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q40" s="55"/>
+      <c r="R40" s="55"/>
+      <c r="S40" s="55"/>
+      <c r="T40" s="55"/>
+      <c r="U40" s="55"/>
+      <c r="V40" s="55"/>
+      <c r="W40" s="55"/>
+    </row>
+    <row r="41" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="32"/>
       <c r="B41" s="33">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C41" s="38"/>
       <c r="D41" s="39"/>
-      <c r="E41" s="60"/>
-      <c r="F41" s="56"/>
+      <c r="E41" s="57"/>
+      <c r="F41" s="58"/>
       <c r="G41" s="37"/>
       <c r="H41" s="37"/>
       <c r="I41" s="37"/>
@@ -2359,23 +2557,23 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q41" s="46"/>
-      <c r="R41" s="47"/>
-      <c r="S41" s="47"/>
-      <c r="T41" s="47"/>
-      <c r="U41" s="47"/>
-      <c r="V41" s="47"/>
-      <c r="W41" s="47"/>
-    </row>
-    <row r="42" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q41" s="55"/>
+      <c r="R41" s="55"/>
+      <c r="S41" s="55"/>
+      <c r="T41" s="55"/>
+      <c r="U41" s="55"/>
+      <c r="V41" s="55"/>
+      <c r="W41" s="55"/>
+    </row>
+    <row r="42" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="32"/>
       <c r="B42" s="33">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C42" s="38"/>
       <c r="D42" s="39"/>
-      <c r="E42" s="60"/>
-      <c r="F42" s="56"/>
+      <c r="E42" s="57"/>
+      <c r="F42" s="58"/>
       <c r="G42" s="37"/>
       <c r="H42" s="37"/>
       <c r="I42" s="37"/>
@@ -2395,23 +2593,23 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q42" s="46"/>
-      <c r="R42" s="47"/>
-      <c r="S42" s="47"/>
-      <c r="T42" s="47"/>
-      <c r="U42" s="47"/>
-      <c r="V42" s="47"/>
-      <c r="W42" s="47"/>
-    </row>
-    <row r="43" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q42" s="55"/>
+      <c r="R42" s="55"/>
+      <c r="S42" s="55"/>
+      <c r="T42" s="55"/>
+      <c r="U42" s="55"/>
+      <c r="V42" s="55"/>
+      <c r="W42" s="55"/>
+    </row>
+    <row r="43" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="32"/>
       <c r="B43" s="33">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C43" s="38"/>
       <c r="D43" s="39"/>
-      <c r="E43" s="60"/>
-      <c r="F43" s="56"/>
+      <c r="E43" s="57"/>
+      <c r="F43" s="58"/>
       <c r="G43" s="37"/>
       <c r="H43" s="37"/>
       <c r="I43" s="37"/>
@@ -2431,23 +2629,23 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q43" s="46"/>
-      <c r="R43" s="47"/>
-      <c r="S43" s="47"/>
-      <c r="T43" s="47"/>
-      <c r="U43" s="47"/>
-      <c r="V43" s="47"/>
-      <c r="W43" s="47"/>
-    </row>
-    <row r="44" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q43" s="55"/>
+      <c r="R43" s="55"/>
+      <c r="S43" s="55"/>
+      <c r="T43" s="55"/>
+      <c r="U43" s="55"/>
+      <c r="V43" s="55"/>
+      <c r="W43" s="55"/>
+    </row>
+    <row r="44" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="32"/>
       <c r="B44" s="33">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C44" s="38"/>
       <c r="D44" s="39"/>
-      <c r="E44" s="60"/>
-      <c r="F44" s="56"/>
+      <c r="E44" s="57"/>
+      <c r="F44" s="58"/>
       <c r="G44" s="37"/>
       <c r="H44" s="37"/>
       <c r="I44" s="37"/>
@@ -2467,23 +2665,23 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q44" s="46"/>
-      <c r="R44" s="47"/>
-      <c r="S44" s="47"/>
-      <c r="T44" s="47"/>
-      <c r="U44" s="47"/>
-      <c r="V44" s="47"/>
-      <c r="W44" s="47"/>
-    </row>
-    <row r="45" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q44" s="55"/>
+      <c r="R44" s="55"/>
+      <c r="S44" s="55"/>
+      <c r="T44" s="55"/>
+      <c r="U44" s="55"/>
+      <c r="V44" s="55"/>
+      <c r="W44" s="55"/>
+    </row>
+    <row r="45" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="32"/>
       <c r="B45" s="33">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C45" s="38"/>
       <c r="D45" s="39"/>
-      <c r="E45" s="60"/>
-      <c r="F45" s="56"/>
+      <c r="E45" s="57"/>
+      <c r="F45" s="58"/>
       <c r="G45" s="37"/>
       <c r="H45" s="37"/>
       <c r="I45" s="37"/>
@@ -2503,23 +2701,23 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q45" s="46"/>
-      <c r="R45" s="47"/>
-      <c r="S45" s="47"/>
-      <c r="T45" s="47"/>
-      <c r="U45" s="47"/>
-      <c r="V45" s="47"/>
-      <c r="W45" s="47"/>
-    </row>
-    <row r="46" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q45" s="55"/>
+      <c r="R45" s="55"/>
+      <c r="S45" s="55"/>
+      <c r="T45" s="55"/>
+      <c r="U45" s="55"/>
+      <c r="V45" s="55"/>
+      <c r="W45" s="55"/>
+    </row>
+    <row r="46" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="32"/>
       <c r="B46" s="33">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C46" s="38"/>
       <c r="D46" s="39"/>
-      <c r="E46" s="60"/>
-      <c r="F46" s="56"/>
+      <c r="E46" s="57"/>
+      <c r="F46" s="58"/>
       <c r="G46" s="37"/>
       <c r="H46" s="37"/>
       <c r="I46" s="37"/>
@@ -2539,23 +2737,23 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q46" s="46"/>
-      <c r="R46" s="47"/>
-      <c r="S46" s="47"/>
-      <c r="T46" s="47"/>
-      <c r="U46" s="47"/>
-      <c r="V46" s="47"/>
-      <c r="W46" s="47"/>
-    </row>
-    <row r="47" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q46" s="55"/>
+      <c r="R46" s="55"/>
+      <c r="S46" s="55"/>
+      <c r="T46" s="55"/>
+      <c r="U46" s="55"/>
+      <c r="V46" s="55"/>
+      <c r="W46" s="55"/>
+    </row>
+    <row r="47" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="32"/>
       <c r="B47" s="33">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C47" s="38"/>
       <c r="D47" s="39"/>
-      <c r="E47" s="60"/>
-      <c r="F47" s="56"/>
+      <c r="E47" s="57"/>
+      <c r="F47" s="58"/>
       <c r="G47" s="37"/>
       <c r="H47" s="37"/>
       <c r="I47" s="37"/>
@@ -2575,23 +2773,23 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q47" s="46"/>
-      <c r="R47" s="47"/>
-      <c r="S47" s="47"/>
-      <c r="T47" s="47"/>
-      <c r="U47" s="47"/>
-      <c r="V47" s="47"/>
-      <c r="W47" s="47"/>
-    </row>
-    <row r="48" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q47" s="55"/>
+      <c r="R47" s="55"/>
+      <c r="S47" s="55"/>
+      <c r="T47" s="55"/>
+      <c r="U47" s="55"/>
+      <c r="V47" s="55"/>
+      <c r="W47" s="55"/>
+    </row>
+    <row r="48" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="32"/>
       <c r="B48" s="33">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C48" s="38"/>
       <c r="D48" s="39"/>
-      <c r="E48" s="60"/>
-      <c r="F48" s="56"/>
+      <c r="E48" s="57"/>
+      <c r="F48" s="58"/>
       <c r="G48" s="37"/>
       <c r="H48" s="37"/>
       <c r="I48" s="37"/>
@@ -2611,23 +2809,23 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q48" s="46"/>
-      <c r="R48" s="47"/>
-      <c r="S48" s="47"/>
-      <c r="T48" s="47"/>
-      <c r="U48" s="47"/>
-      <c r="V48" s="47"/>
-      <c r="W48" s="47"/>
-    </row>
-    <row r="49" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q48" s="55"/>
+      <c r="R48" s="55"/>
+      <c r="S48" s="55"/>
+      <c r="T48" s="55"/>
+      <c r="U48" s="55"/>
+      <c r="V48" s="55"/>
+      <c r="W48" s="55"/>
+    </row>
+    <row r="49" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="32"/>
       <c r="B49" s="33">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C49" s="38"/>
       <c r="D49" s="39"/>
-      <c r="E49" s="60"/>
-      <c r="F49" s="56"/>
+      <c r="E49" s="57"/>
+      <c r="F49" s="58"/>
       <c r="G49" s="37"/>
       <c r="H49" s="37"/>
       <c r="I49" s="37"/>
@@ -2647,23 +2845,23 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q49" s="46"/>
-      <c r="R49" s="47"/>
-      <c r="S49" s="47"/>
-      <c r="T49" s="47"/>
-      <c r="U49" s="47"/>
-      <c r="V49" s="47"/>
-      <c r="W49" s="47"/>
-    </row>
-    <row r="50" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q49" s="55"/>
+      <c r="R49" s="55"/>
+      <c r="S49" s="55"/>
+      <c r="T49" s="55"/>
+      <c r="U49" s="55"/>
+      <c r="V49" s="55"/>
+      <c r="W49" s="55"/>
+    </row>
+    <row r="50" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="32"/>
       <c r="B50" s="33">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C50" s="38"/>
       <c r="D50" s="39"/>
-      <c r="E50" s="60"/>
-      <c r="F50" s="56"/>
+      <c r="E50" s="57"/>
+      <c r="F50" s="58"/>
       <c r="G50" s="37"/>
       <c r="H50" s="37"/>
       <c r="I50" s="37"/>
@@ -2683,23 +2881,23 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q50" s="46"/>
-      <c r="R50" s="47"/>
-      <c r="S50" s="47"/>
-      <c r="T50" s="47"/>
-      <c r="U50" s="47"/>
-      <c r="V50" s="47"/>
-      <c r="W50" s="47"/>
-    </row>
-    <row r="51" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q50" s="55"/>
+      <c r="R50" s="55"/>
+      <c r="S50" s="55"/>
+      <c r="T50" s="55"/>
+      <c r="U50" s="55"/>
+      <c r="V50" s="55"/>
+      <c r="W50" s="55"/>
+    </row>
+    <row r="51" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="32"/>
       <c r="B51" s="33">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C51" s="38"/>
       <c r="D51" s="39"/>
-      <c r="E51" s="60"/>
-      <c r="F51" s="56"/>
+      <c r="E51" s="57"/>
+      <c r="F51" s="58"/>
       <c r="G51" s="37"/>
       <c r="H51" s="37"/>
       <c r="I51" s="37"/>
@@ -2719,23 +2917,23 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q51" s="46"/>
-      <c r="R51" s="47"/>
-      <c r="S51" s="47"/>
-      <c r="T51" s="47"/>
-      <c r="U51" s="47"/>
-      <c r="V51" s="47"/>
-      <c r="W51" s="47"/>
-    </row>
-    <row r="52" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q51" s="55"/>
+      <c r="R51" s="55"/>
+      <c r="S51" s="55"/>
+      <c r="T51" s="55"/>
+      <c r="U51" s="55"/>
+      <c r="V51" s="55"/>
+      <c r="W51" s="55"/>
+    </row>
+    <row r="52" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="32"/>
       <c r="B52" s="33">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C52" s="38"/>
       <c r="D52" s="39"/>
-      <c r="E52" s="60"/>
-      <c r="F52" s="56"/>
+      <c r="E52" s="57"/>
+      <c r="F52" s="58"/>
       <c r="G52" s="37"/>
       <c r="H52" s="37"/>
       <c r="I52" s="37"/>
@@ -2755,23 +2953,23 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q52" s="46"/>
-      <c r="R52" s="47"/>
-      <c r="S52" s="47"/>
-      <c r="T52" s="47"/>
-      <c r="U52" s="47"/>
-      <c r="V52" s="47"/>
-      <c r="W52" s="47"/>
-    </row>
-    <row r="53" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q52" s="55"/>
+      <c r="R52" s="55"/>
+      <c r="S52" s="55"/>
+      <c r="T52" s="55"/>
+      <c r="U52" s="55"/>
+      <c r="V52" s="55"/>
+      <c r="W52" s="55"/>
+    </row>
+    <row r="53" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="32"/>
       <c r="B53" s="33">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C53" s="38"/>
       <c r="D53" s="39"/>
-      <c r="E53" s="60"/>
-      <c r="F53" s="56"/>
+      <c r="E53" s="57"/>
+      <c r="F53" s="58"/>
       <c r="G53" s="37"/>
       <c r="H53" s="37"/>
       <c r="I53" s="37"/>
@@ -2791,23 +2989,23 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q53" s="46"/>
-      <c r="R53" s="47"/>
-      <c r="S53" s="47"/>
-      <c r="T53" s="47"/>
-      <c r="U53" s="47"/>
-      <c r="V53" s="47"/>
-      <c r="W53" s="47"/>
-    </row>
-    <row r="54" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q53" s="55"/>
+      <c r="R53" s="55"/>
+      <c r="S53" s="55"/>
+      <c r="T53" s="55"/>
+      <c r="U53" s="55"/>
+      <c r="V53" s="55"/>
+      <c r="W53" s="55"/>
+    </row>
+    <row r="54" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="32"/>
       <c r="B54" s="33">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C54" s="38"/>
       <c r="D54" s="39"/>
-      <c r="E54" s="60"/>
-      <c r="F54" s="56"/>
+      <c r="E54" s="57"/>
+      <c r="F54" s="58"/>
       <c r="G54" s="37"/>
       <c r="H54" s="37"/>
       <c r="I54" s="37"/>
@@ -2827,23 +3025,23 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q54" s="46"/>
-      <c r="R54" s="47"/>
-      <c r="S54" s="47"/>
-      <c r="T54" s="47"/>
-      <c r="U54" s="47"/>
-      <c r="V54" s="47"/>
-      <c r="W54" s="47"/>
-    </row>
-    <row r="55" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q54" s="55"/>
+      <c r="R54" s="55"/>
+      <c r="S54" s="55"/>
+      <c r="T54" s="55"/>
+      <c r="U54" s="55"/>
+      <c r="V54" s="55"/>
+      <c r="W54" s="55"/>
+    </row>
+    <row r="55" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="32"/>
       <c r="B55" s="33">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C55" s="38"/>
       <c r="D55" s="39"/>
-      <c r="E55" s="60"/>
-      <c r="F55" s="56"/>
+      <c r="E55" s="57"/>
+      <c r="F55" s="58"/>
       <c r="G55" s="37"/>
       <c r="H55" s="37"/>
       <c r="I55" s="37"/>
@@ -2863,23 +3061,23 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q55" s="46"/>
-      <c r="R55" s="47"/>
-      <c r="S55" s="47"/>
-      <c r="T55" s="47"/>
-      <c r="U55" s="47"/>
-      <c r="V55" s="47"/>
-      <c r="W55" s="47"/>
-    </row>
-    <row r="56" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q55" s="55"/>
+      <c r="R55" s="55"/>
+      <c r="S55" s="55"/>
+      <c r="T55" s="55"/>
+      <c r="U55" s="55"/>
+      <c r="V55" s="55"/>
+      <c r="W55" s="55"/>
+    </row>
+    <row r="56" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="32"/>
       <c r="B56" s="33">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C56" s="38"/>
       <c r="D56" s="39"/>
-      <c r="E56" s="60"/>
-      <c r="F56" s="56"/>
+      <c r="E56" s="57"/>
+      <c r="F56" s="58"/>
       <c r="G56" s="37"/>
       <c r="H56" s="37"/>
       <c r="I56" s="37"/>
@@ -2899,23 +3097,23 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q56" s="46"/>
-      <c r="R56" s="47"/>
-      <c r="S56" s="47"/>
-      <c r="T56" s="47"/>
-      <c r="U56" s="47"/>
-      <c r="V56" s="47"/>
-      <c r="W56" s="47"/>
-    </row>
-    <row r="57" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q56" s="55"/>
+      <c r="R56" s="55"/>
+      <c r="S56" s="55"/>
+      <c r="T56" s="55"/>
+      <c r="U56" s="55"/>
+      <c r="V56" s="55"/>
+      <c r="W56" s="55"/>
+    </row>
+    <row r="57" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="32"/>
       <c r="B57" s="33">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C57" s="38"/>
       <c r="D57" s="39"/>
-      <c r="E57" s="60"/>
-      <c r="F57" s="56"/>
+      <c r="E57" s="57"/>
+      <c r="F57" s="58"/>
       <c r="G57" s="37"/>
       <c r="H57" s="37"/>
       <c r="I57" s="37"/>
@@ -2935,23 +3133,23 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q57" s="46"/>
-      <c r="R57" s="47"/>
-      <c r="S57" s="47"/>
-      <c r="T57" s="47"/>
-      <c r="U57" s="47"/>
-      <c r="V57" s="47"/>
-      <c r="W57" s="47"/>
-    </row>
-    <row r="58" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q57" s="55"/>
+      <c r="R57" s="55"/>
+      <c r="S57" s="55"/>
+      <c r="T57" s="55"/>
+      <c r="U57" s="55"/>
+      <c r="V57" s="55"/>
+      <c r="W57" s="55"/>
+    </row>
+    <row r="58" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="32"/>
       <c r="B58" s="33">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C58" s="38"/>
       <c r="D58" s="39"/>
-      <c r="E58" s="60"/>
-      <c r="F58" s="56"/>
+      <c r="E58" s="57"/>
+      <c r="F58" s="58"/>
       <c r="G58" s="37"/>
       <c r="H58" s="37"/>
       <c r="I58" s="37"/>
@@ -2971,23 +3169,23 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q58" s="46"/>
-      <c r="R58" s="47"/>
-      <c r="S58" s="47"/>
-      <c r="T58" s="47"/>
-      <c r="U58" s="47"/>
-      <c r="V58" s="47"/>
-      <c r="W58" s="47"/>
-    </row>
-    <row r="59" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q58" s="55"/>
+      <c r="R58" s="55"/>
+      <c r="S58" s="55"/>
+      <c r="T58" s="55"/>
+      <c r="U58" s="55"/>
+      <c r="V58" s="55"/>
+      <c r="W58" s="55"/>
+    </row>
+    <row r="59" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="32"/>
       <c r="B59" s="33">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C59" s="38"/>
       <c r="D59" s="39"/>
-      <c r="E59" s="60"/>
-      <c r="F59" s="56"/>
+      <c r="E59" s="57"/>
+      <c r="F59" s="58"/>
       <c r="G59" s="37"/>
       <c r="H59" s="37"/>
       <c r="I59" s="37"/>
@@ -3007,23 +3205,23 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q59" s="46"/>
-      <c r="R59" s="47"/>
-      <c r="S59" s="47"/>
-      <c r="T59" s="47"/>
-      <c r="U59" s="47"/>
-      <c r="V59" s="47"/>
-      <c r="W59" s="47"/>
-    </row>
-    <row r="60" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q59" s="55"/>
+      <c r="R59" s="55"/>
+      <c r="S59" s="55"/>
+      <c r="T59" s="55"/>
+      <c r="U59" s="55"/>
+      <c r="V59" s="55"/>
+      <c r="W59" s="55"/>
+    </row>
+    <row r="60" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="32"/>
       <c r="B60" s="33">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C60" s="38"/>
       <c r="D60" s="39"/>
-      <c r="E60" s="60"/>
-      <c r="F60" s="56"/>
+      <c r="E60" s="57"/>
+      <c r="F60" s="58"/>
       <c r="G60" s="37"/>
       <c r="H60" s="37"/>
       <c r="I60" s="37"/>
@@ -3043,23 +3241,23 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q60" s="46"/>
-      <c r="R60" s="47"/>
-      <c r="S60" s="47"/>
-      <c r="T60" s="47"/>
-      <c r="U60" s="47"/>
-      <c r="V60" s="47"/>
-      <c r="W60" s="47"/>
-    </row>
-    <row r="61" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q60" s="55"/>
+      <c r="R60" s="55"/>
+      <c r="S60" s="55"/>
+      <c r="T60" s="55"/>
+      <c r="U60" s="55"/>
+      <c r="V60" s="55"/>
+      <c r="W60" s="55"/>
+    </row>
+    <row r="61" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="32"/>
       <c r="B61" s="33">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C61" s="38"/>
       <c r="D61" s="39"/>
-      <c r="E61" s="60"/>
-      <c r="F61" s="56"/>
+      <c r="E61" s="57"/>
+      <c r="F61" s="58"/>
       <c r="G61" s="37"/>
       <c r="H61" s="37"/>
       <c r="I61" s="37"/>
@@ -3079,23 +3277,23 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q61" s="46"/>
-      <c r="R61" s="47"/>
-      <c r="S61" s="47"/>
-      <c r="T61" s="47"/>
-      <c r="U61" s="47"/>
-      <c r="V61" s="47"/>
-      <c r="W61" s="47"/>
-    </row>
-    <row r="62" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q61" s="55"/>
+      <c r="R61" s="55"/>
+      <c r="S61" s="55"/>
+      <c r="T61" s="55"/>
+      <c r="U61" s="55"/>
+      <c r="V61" s="55"/>
+      <c r="W61" s="55"/>
+    </row>
+    <row r="62" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="32"/>
       <c r="B62" s="33">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C62" s="38"/>
       <c r="D62" s="39"/>
-      <c r="E62" s="60"/>
-      <c r="F62" s="56"/>
+      <c r="E62" s="57"/>
+      <c r="F62" s="58"/>
       <c r="G62" s="37"/>
       <c r="H62" s="37"/>
       <c r="I62" s="37"/>
@@ -3115,23 +3313,23 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q62" s="46"/>
-      <c r="R62" s="47"/>
-      <c r="S62" s="47"/>
-      <c r="T62" s="47"/>
-      <c r="U62" s="47"/>
-      <c r="V62" s="47"/>
-      <c r="W62" s="47"/>
-    </row>
-    <row r="63" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q62" s="55"/>
+      <c r="R62" s="55"/>
+      <c r="S62" s="55"/>
+      <c r="T62" s="55"/>
+      <c r="U62" s="55"/>
+      <c r="V62" s="55"/>
+      <c r="W62" s="55"/>
+    </row>
+    <row r="63" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="32"/>
       <c r="B63" s="33">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C63" s="38"/>
       <c r="D63" s="39"/>
-      <c r="E63" s="60"/>
-      <c r="F63" s="56"/>
+      <c r="E63" s="57"/>
+      <c r="F63" s="58"/>
       <c r="G63" s="37"/>
       <c r="H63" s="37"/>
       <c r="I63" s="37"/>
@@ -3151,23 +3349,23 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q63" s="46"/>
-      <c r="R63" s="47"/>
-      <c r="S63" s="47"/>
-      <c r="T63" s="47"/>
-      <c r="U63" s="47"/>
-      <c r="V63" s="47"/>
-      <c r="W63" s="47"/>
-    </row>
-    <row r="64" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q63" s="55"/>
+      <c r="R63" s="55"/>
+      <c r="S63" s="55"/>
+      <c r="T63" s="55"/>
+      <c r="U63" s="55"/>
+      <c r="V63" s="55"/>
+      <c r="W63" s="55"/>
+    </row>
+    <row r="64" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="32"/>
       <c r="B64" s="33">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C64" s="38"/>
       <c r="D64" s="39"/>
-      <c r="E64" s="60"/>
-      <c r="F64" s="56"/>
+      <c r="E64" s="57"/>
+      <c r="F64" s="58"/>
       <c r="G64" s="37"/>
       <c r="H64" s="37"/>
       <c r="I64" s="37"/>
@@ -3187,23 +3385,23 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q64" s="46"/>
-      <c r="R64" s="47"/>
-      <c r="S64" s="47"/>
-      <c r="T64" s="47"/>
-      <c r="U64" s="47"/>
-      <c r="V64" s="47"/>
-      <c r="W64" s="47"/>
-    </row>
-    <row r="65" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q64" s="55"/>
+      <c r="R64" s="55"/>
+      <c r="S64" s="55"/>
+      <c r="T64" s="55"/>
+      <c r="U64" s="55"/>
+      <c r="V64" s="55"/>
+      <c r="W64" s="55"/>
+    </row>
+    <row r="65" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="32"/>
       <c r="B65" s="33">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C65" s="38"/>
       <c r="D65" s="39"/>
-      <c r="E65" s="60"/>
-      <c r="F65" s="56"/>
+      <c r="E65" s="57"/>
+      <c r="F65" s="58"/>
       <c r="G65" s="37"/>
       <c r="H65" s="37"/>
       <c r="I65" s="37"/>
@@ -3223,23 +3421,23 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q65" s="46"/>
-      <c r="R65" s="47"/>
-      <c r="S65" s="47"/>
-      <c r="T65" s="47"/>
-      <c r="U65" s="47"/>
-      <c r="V65" s="47"/>
-      <c r="W65" s="47"/>
-    </row>
-    <row r="66" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q65" s="55"/>
+      <c r="R65" s="55"/>
+      <c r="S65" s="55"/>
+      <c r="T65" s="55"/>
+      <c r="U65" s="55"/>
+      <c r="V65" s="55"/>
+      <c r="W65" s="55"/>
+    </row>
+    <row r="66" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="32"/>
       <c r="B66" s="33">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C66" s="38"/>
       <c r="D66" s="39"/>
-      <c r="E66" s="60"/>
-      <c r="F66" s="56"/>
+      <c r="E66" s="57"/>
+      <c r="F66" s="58"/>
       <c r="G66" s="37"/>
       <c r="H66" s="37"/>
       <c r="I66" s="37"/>
@@ -3259,23 +3457,23 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q66" s="46"/>
-      <c r="R66" s="47"/>
-      <c r="S66" s="47"/>
-      <c r="T66" s="47"/>
-      <c r="U66" s="47"/>
-      <c r="V66" s="47"/>
-      <c r="W66" s="47"/>
-    </row>
-    <row r="67" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q66" s="55"/>
+      <c r="R66" s="55"/>
+      <c r="S66" s="55"/>
+      <c r="T66" s="55"/>
+      <c r="U66" s="55"/>
+      <c r="V66" s="55"/>
+      <c r="W66" s="55"/>
+    </row>
+    <row r="67" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="32"/>
       <c r="B67" s="33">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C67" s="38"/>
       <c r="D67" s="39"/>
-      <c r="E67" s="60"/>
-      <c r="F67" s="56"/>
+      <c r="E67" s="57"/>
+      <c r="F67" s="58"/>
       <c r="G67" s="37"/>
       <c r="H67" s="37"/>
       <c r="I67" s="37"/>
@@ -3295,23 +3493,23 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q67" s="46"/>
-      <c r="R67" s="47"/>
-      <c r="S67" s="47"/>
-      <c r="T67" s="47"/>
-      <c r="U67" s="47"/>
-      <c r="V67" s="47"/>
-      <c r="W67" s="47"/>
-    </row>
-    <row r="68" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q67" s="55"/>
+      <c r="R67" s="55"/>
+      <c r="S67" s="55"/>
+      <c r="T67" s="55"/>
+      <c r="U67" s="55"/>
+      <c r="V67" s="55"/>
+      <c r="W67" s="55"/>
+    </row>
+    <row r="68" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="32"/>
       <c r="B68" s="33">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C68" s="38"/>
       <c r="D68" s="39"/>
-      <c r="E68" s="60"/>
-      <c r="F68" s="56"/>
+      <c r="E68" s="57"/>
+      <c r="F68" s="58"/>
       <c r="G68" s="37"/>
       <c r="H68" s="37"/>
       <c r="I68" s="37"/>
@@ -3331,23 +3529,23 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q68" s="46"/>
-      <c r="R68" s="47"/>
-      <c r="S68" s="47"/>
-      <c r="T68" s="47"/>
-      <c r="U68" s="47"/>
-      <c r="V68" s="47"/>
-      <c r="W68" s="47"/>
-    </row>
-    <row r="69" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q68" s="55"/>
+      <c r="R68" s="55"/>
+      <c r="S68" s="55"/>
+      <c r="T68" s="55"/>
+      <c r="U68" s="55"/>
+      <c r="V68" s="55"/>
+      <c r="W68" s="55"/>
+    </row>
+    <row r="69" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="32"/>
       <c r="B69" s="33">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C69" s="38"/>
       <c r="D69" s="39"/>
-      <c r="E69" s="60"/>
-      <c r="F69" s="56"/>
+      <c r="E69" s="57"/>
+      <c r="F69" s="58"/>
       <c r="G69" s="37"/>
       <c r="H69" s="37"/>
       <c r="I69" s="37"/>
@@ -3367,23 +3565,23 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q69" s="46"/>
-      <c r="R69" s="47"/>
-      <c r="S69" s="47"/>
-      <c r="T69" s="47"/>
-      <c r="U69" s="47"/>
-      <c r="V69" s="47"/>
-      <c r="W69" s="47"/>
-    </row>
-    <row r="70" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q69" s="55"/>
+      <c r="R69" s="55"/>
+      <c r="S69" s="55"/>
+      <c r="T69" s="55"/>
+      <c r="U69" s="55"/>
+      <c r="V69" s="55"/>
+      <c r="W69" s="55"/>
+    </row>
+    <row r="70" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="32"/>
       <c r="B70" s="33">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C70" s="38"/>
       <c r="D70" s="39"/>
-      <c r="E70" s="60"/>
-      <c r="F70" s="56"/>
+      <c r="E70" s="57"/>
+      <c r="F70" s="58"/>
       <c r="G70" s="37"/>
       <c r="H70" s="37"/>
       <c r="I70" s="37"/>
@@ -3403,23 +3601,23 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q70" s="46"/>
-      <c r="R70" s="47"/>
-      <c r="S70" s="47"/>
-      <c r="T70" s="47"/>
-      <c r="U70" s="47"/>
-      <c r="V70" s="47"/>
-      <c r="W70" s="47"/>
-    </row>
-    <row r="71" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q70" s="55"/>
+      <c r="R70" s="55"/>
+      <c r="S70" s="55"/>
+      <c r="T70" s="55"/>
+      <c r="U70" s="55"/>
+      <c r="V70" s="55"/>
+      <c r="W70" s="55"/>
+    </row>
+    <row r="71" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="32"/>
       <c r="B71" s="33">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C71" s="38"/>
       <c r="D71" s="39"/>
-      <c r="E71" s="60"/>
-      <c r="F71" s="56"/>
+      <c r="E71" s="57"/>
+      <c r="F71" s="58"/>
       <c r="G71" s="37"/>
       <c r="H71" s="37"/>
       <c r="I71" s="37"/>
@@ -3439,23 +3637,23 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q71" s="46"/>
-      <c r="R71" s="47"/>
-      <c r="S71" s="47"/>
-      <c r="T71" s="47"/>
-      <c r="U71" s="47"/>
-      <c r="V71" s="47"/>
-      <c r="W71" s="47"/>
-    </row>
-    <row r="72" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q71" s="55"/>
+      <c r="R71" s="55"/>
+      <c r="S71" s="55"/>
+      <c r="T71" s="55"/>
+      <c r="U71" s="55"/>
+      <c r="V71" s="55"/>
+      <c r="W71" s="55"/>
+    </row>
+    <row r="72" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="32"/>
       <c r="B72" s="33">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C72" s="38"/>
       <c r="D72" s="39"/>
-      <c r="E72" s="60"/>
-      <c r="F72" s="56"/>
+      <c r="E72" s="57"/>
+      <c r="F72" s="58"/>
       <c r="G72" s="37"/>
       <c r="H72" s="37"/>
       <c r="I72" s="37"/>
@@ -3475,23 +3673,23 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q72" s="46"/>
-      <c r="R72" s="47"/>
-      <c r="S72" s="47"/>
-      <c r="T72" s="47"/>
-      <c r="U72" s="47"/>
-      <c r="V72" s="47"/>
-      <c r="W72" s="47"/>
-    </row>
-    <row r="73" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q72" s="55"/>
+      <c r="R72" s="55"/>
+      <c r="S72" s="55"/>
+      <c r="T72" s="55"/>
+      <c r="U72" s="55"/>
+      <c r="V72" s="55"/>
+      <c r="W72" s="55"/>
+    </row>
+    <row r="73" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="32"/>
       <c r="B73" s="33">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C73" s="38"/>
       <c r="D73" s="39"/>
-      <c r="E73" s="60"/>
-      <c r="F73" s="56"/>
+      <c r="E73" s="57"/>
+      <c r="F73" s="58"/>
       <c r="G73" s="37"/>
       <c r="H73" s="37"/>
       <c r="I73" s="37"/>
@@ -3511,23 +3709,23 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q73" s="46"/>
-      <c r="R73" s="47"/>
-      <c r="S73" s="47"/>
-      <c r="T73" s="47"/>
-      <c r="U73" s="47"/>
-      <c r="V73" s="47"/>
-      <c r="W73" s="47"/>
-    </row>
-    <row r="74" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q73" s="55"/>
+      <c r="R73" s="55"/>
+      <c r="S73" s="55"/>
+      <c r="T73" s="55"/>
+      <c r="U73" s="55"/>
+      <c r="V73" s="55"/>
+      <c r="W73" s="55"/>
+    </row>
+    <row r="74" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="32"/>
       <c r="B74" s="33">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C74" s="38"/>
       <c r="D74" s="39"/>
-      <c r="E74" s="60"/>
-      <c r="F74" s="56"/>
+      <c r="E74" s="57"/>
+      <c r="F74" s="58"/>
       <c r="G74" s="37"/>
       <c r="H74" s="37"/>
       <c r="I74" s="37"/>
@@ -3547,23 +3745,23 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q74" s="46"/>
-      <c r="R74" s="47"/>
-      <c r="S74" s="47"/>
-      <c r="T74" s="47"/>
-      <c r="U74" s="47"/>
-      <c r="V74" s="47"/>
-      <c r="W74" s="47"/>
-    </row>
-    <row r="75" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q74" s="55"/>
+      <c r="R74" s="55"/>
+      <c r="S74" s="55"/>
+      <c r="T74" s="55"/>
+      <c r="U74" s="55"/>
+      <c r="V74" s="55"/>
+      <c r="W74" s="55"/>
+    </row>
+    <row r="75" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="32"/>
       <c r="B75" s="33">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C75" s="38"/>
       <c r="D75" s="39"/>
-      <c r="E75" s="60"/>
-      <c r="F75" s="56"/>
+      <c r="E75" s="57"/>
+      <c r="F75" s="58"/>
       <c r="G75" s="37"/>
       <c r="H75" s="37"/>
       <c r="I75" s="37"/>
@@ -3583,23 +3781,23 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q75" s="46"/>
-      <c r="R75" s="47"/>
-      <c r="S75" s="47"/>
-      <c r="T75" s="47"/>
-      <c r="U75" s="47"/>
-      <c r="V75" s="47"/>
-      <c r="W75" s="47"/>
-    </row>
-    <row r="76" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q75" s="55"/>
+      <c r="R75" s="55"/>
+      <c r="S75" s="55"/>
+      <c r="T75" s="55"/>
+      <c r="U75" s="55"/>
+      <c r="V75" s="55"/>
+      <c r="W75" s="55"/>
+    </row>
+    <row r="76" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="32"/>
       <c r="B76" s="33">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C76" s="38"/>
       <c r="D76" s="39"/>
-      <c r="E76" s="60"/>
-      <c r="F76" s="56"/>
+      <c r="E76" s="57"/>
+      <c r="F76" s="58"/>
       <c r="G76" s="37"/>
       <c r="H76" s="37"/>
       <c r="I76" s="37"/>
@@ -3619,23 +3817,23 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q76" s="46"/>
-      <c r="R76" s="47"/>
-      <c r="S76" s="47"/>
-      <c r="T76" s="47"/>
-      <c r="U76" s="47"/>
-      <c r="V76" s="47"/>
-      <c r="W76" s="47"/>
-    </row>
-    <row r="77" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q76" s="55"/>
+      <c r="R76" s="55"/>
+      <c r="S76" s="55"/>
+      <c r="T76" s="55"/>
+      <c r="U76" s="55"/>
+      <c r="V76" s="55"/>
+      <c r="W76" s="55"/>
+    </row>
+    <row r="77" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="32"/>
       <c r="B77" s="33">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C77" s="38"/>
       <c r="D77" s="39"/>
-      <c r="E77" s="60"/>
-      <c r="F77" s="56"/>
+      <c r="E77" s="57"/>
+      <c r="F77" s="58"/>
       <c r="G77" s="37"/>
       <c r="H77" s="37"/>
       <c r="I77" s="37"/>
@@ -3655,23 +3853,23 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q77" s="46"/>
-      <c r="R77" s="47"/>
-      <c r="S77" s="47"/>
-      <c r="T77" s="47"/>
-      <c r="U77" s="47"/>
-      <c r="V77" s="47"/>
-      <c r="W77" s="47"/>
-    </row>
-    <row r="78" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q77" s="55"/>
+      <c r="R77" s="55"/>
+      <c r="S77" s="55"/>
+      <c r="T77" s="55"/>
+      <c r="U77" s="55"/>
+      <c r="V77" s="55"/>
+      <c r="W77" s="55"/>
+    </row>
+    <row r="78" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="32"/>
       <c r="B78" s="33">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C78" s="38"/>
       <c r="D78" s="39"/>
-      <c r="E78" s="60"/>
-      <c r="F78" s="56"/>
+      <c r="E78" s="57"/>
+      <c r="F78" s="58"/>
       <c r="G78" s="37"/>
       <c r="H78" s="37"/>
       <c r="I78" s="37"/>
@@ -3691,23 +3889,23 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q78" s="46"/>
-      <c r="R78" s="47"/>
-      <c r="S78" s="47"/>
-      <c r="T78" s="47"/>
-      <c r="U78" s="47"/>
-      <c r="V78" s="47"/>
-      <c r="W78" s="47"/>
-    </row>
-    <row r="79" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q78" s="55"/>
+      <c r="R78" s="55"/>
+      <c r="S78" s="55"/>
+      <c r="T78" s="55"/>
+      <c r="U78" s="55"/>
+      <c r="V78" s="55"/>
+      <c r="W78" s="55"/>
+    </row>
+    <row r="79" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="32"/>
       <c r="B79" s="33">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C79" s="38"/>
       <c r="D79" s="39"/>
-      <c r="E79" s="60"/>
-      <c r="F79" s="56"/>
+      <c r="E79" s="57"/>
+      <c r="F79" s="58"/>
       <c r="G79" s="37"/>
       <c r="H79" s="37"/>
       <c r="I79" s="37"/>
@@ -3727,23 +3925,23 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q79" s="46"/>
-      <c r="R79" s="47"/>
-      <c r="S79" s="47"/>
-      <c r="T79" s="47"/>
-      <c r="U79" s="47"/>
-      <c r="V79" s="47"/>
-      <c r="W79" s="47"/>
-    </row>
-    <row r="80" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q79" s="55"/>
+      <c r="R79" s="55"/>
+      <c r="S79" s="55"/>
+      <c r="T79" s="55"/>
+      <c r="U79" s="55"/>
+      <c r="V79" s="55"/>
+      <c r="W79" s="55"/>
+    </row>
+    <row r="80" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="32"/>
       <c r="B80" s="33">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C80" s="38"/>
       <c r="D80" s="39"/>
-      <c r="E80" s="60"/>
-      <c r="F80" s="56"/>
+      <c r="E80" s="57"/>
+      <c r="F80" s="58"/>
       <c r="G80" s="37"/>
       <c r="H80" s="37"/>
       <c r="I80" s="37"/>
@@ -3763,23 +3961,23 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q80" s="46"/>
-      <c r="R80" s="47"/>
-      <c r="S80" s="47"/>
-      <c r="T80" s="47"/>
-      <c r="U80" s="47"/>
-      <c r="V80" s="47"/>
-      <c r="W80" s="47"/>
-    </row>
-    <row r="81" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q80" s="55"/>
+      <c r="R80" s="55"/>
+      <c r="S80" s="55"/>
+      <c r="T80" s="55"/>
+      <c r="U80" s="55"/>
+      <c r="V80" s="55"/>
+      <c r="W80" s="55"/>
+    </row>
+    <row r="81" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="32"/>
       <c r="B81" s="33">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C81" s="38"/>
       <c r="D81" s="39"/>
-      <c r="E81" s="60"/>
-      <c r="F81" s="56"/>
+      <c r="E81" s="57"/>
+      <c r="F81" s="58"/>
       <c r="G81" s="37"/>
       <c r="H81" s="37"/>
       <c r="I81" s="37"/>
@@ -3799,23 +3997,23 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q81" s="46"/>
-      <c r="R81" s="47"/>
-      <c r="S81" s="47"/>
-      <c r="T81" s="47"/>
-      <c r="U81" s="47"/>
-      <c r="V81" s="47"/>
-      <c r="W81" s="47"/>
-    </row>
-    <row r="82" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q81" s="55"/>
+      <c r="R81" s="55"/>
+      <c r="S81" s="55"/>
+      <c r="T81" s="55"/>
+      <c r="U81" s="55"/>
+      <c r="V81" s="55"/>
+      <c r="W81" s="55"/>
+    </row>
+    <row r="82" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="32"/>
       <c r="B82" s="33">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C82" s="38"/>
       <c r="D82" s="39"/>
-      <c r="E82" s="60"/>
-      <c r="F82" s="56"/>
+      <c r="E82" s="57"/>
+      <c r="F82" s="58"/>
       <c r="G82" s="37"/>
       <c r="H82" s="37"/>
       <c r="I82" s="37"/>
@@ -3835,23 +4033,23 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q82" s="46"/>
-      <c r="R82" s="47"/>
-      <c r="S82" s="47"/>
-      <c r="T82" s="47"/>
-      <c r="U82" s="47"/>
-      <c r="V82" s="47"/>
-      <c r="W82" s="47"/>
-    </row>
-    <row r="83" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q82" s="55"/>
+      <c r="R82" s="55"/>
+      <c r="S82" s="55"/>
+      <c r="T82" s="55"/>
+      <c r="U82" s="55"/>
+      <c r="V82" s="55"/>
+      <c r="W82" s="55"/>
+    </row>
+    <row r="83" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="32"/>
       <c r="B83" s="33">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C83" s="38"/>
       <c r="D83" s="39"/>
-      <c r="E83" s="60"/>
-      <c r="F83" s="56"/>
+      <c r="E83" s="57"/>
+      <c r="F83" s="58"/>
       <c r="G83" s="37"/>
       <c r="H83" s="37"/>
       <c r="I83" s="37"/>
@@ -3871,23 +4069,23 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q83" s="46"/>
-      <c r="R83" s="47"/>
-      <c r="S83" s="47"/>
-      <c r="T83" s="47"/>
-      <c r="U83" s="47"/>
-      <c r="V83" s="47"/>
-      <c r="W83" s="47"/>
-    </row>
-    <row r="84" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q83" s="55"/>
+      <c r="R83" s="55"/>
+      <c r="S83" s="55"/>
+      <c r="T83" s="55"/>
+      <c r="U83" s="55"/>
+      <c r="V83" s="55"/>
+      <c r="W83" s="55"/>
+    </row>
+    <row r="84" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="32"/>
       <c r="B84" s="33">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C84" s="38"/>
       <c r="D84" s="39"/>
-      <c r="E84" s="60"/>
-      <c r="F84" s="56"/>
+      <c r="E84" s="57"/>
+      <c r="F84" s="58"/>
       <c r="G84" s="37"/>
       <c r="H84" s="37"/>
       <c r="I84" s="37"/>
@@ -3907,23 +4105,23 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q84" s="46"/>
-      <c r="R84" s="47"/>
-      <c r="S84" s="47"/>
-      <c r="T84" s="47"/>
-      <c r="U84" s="47"/>
-      <c r="V84" s="47"/>
-      <c r="W84" s="47"/>
-    </row>
-    <row r="85" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q84" s="55"/>
+      <c r="R84" s="55"/>
+      <c r="S84" s="55"/>
+      <c r="T84" s="55"/>
+      <c r="U84" s="55"/>
+      <c r="V84" s="55"/>
+      <c r="W84" s="55"/>
+    </row>
+    <row r="85" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="32"/>
       <c r="B85" s="33">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C85" s="38"/>
       <c r="D85" s="39"/>
-      <c r="E85" s="60"/>
-      <c r="F85" s="56"/>
+      <c r="E85" s="57"/>
+      <c r="F85" s="58"/>
       <c r="G85" s="37"/>
       <c r="H85" s="37"/>
       <c r="I85" s="37"/>
@@ -3943,23 +4141,23 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q85" s="46"/>
-      <c r="R85" s="47"/>
-      <c r="S85" s="47"/>
-      <c r="T85" s="47"/>
-      <c r="U85" s="47"/>
-      <c r="V85" s="47"/>
-      <c r="W85" s="47"/>
-    </row>
-    <row r="86" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q85" s="55"/>
+      <c r="R85" s="55"/>
+      <c r="S85" s="55"/>
+      <c r="T85" s="55"/>
+      <c r="U85" s="55"/>
+      <c r="V85" s="55"/>
+      <c r="W85" s="55"/>
+    </row>
+    <row r="86" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="32"/>
       <c r="B86" s="33">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C86" s="38"/>
       <c r="D86" s="39"/>
-      <c r="E86" s="60"/>
-      <c r="F86" s="56"/>
+      <c r="E86" s="57"/>
+      <c r="F86" s="58"/>
       <c r="G86" s="37"/>
       <c r="H86" s="37"/>
       <c r="I86" s="37"/>
@@ -3979,23 +4177,23 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q86" s="46"/>
-      <c r="R86" s="47"/>
-      <c r="S86" s="47"/>
-      <c r="T86" s="47"/>
-      <c r="U86" s="47"/>
-      <c r="V86" s="47"/>
-      <c r="W86" s="47"/>
-    </row>
-    <row r="87" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q86" s="55"/>
+      <c r="R86" s="55"/>
+      <c r="S86" s="55"/>
+      <c r="T86" s="55"/>
+      <c r="U86" s="55"/>
+      <c r="V86" s="55"/>
+      <c r="W86" s="55"/>
+    </row>
+    <row r="87" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="32"/>
       <c r="B87" s="33">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C87" s="38"/>
       <c r="D87" s="39"/>
-      <c r="E87" s="60"/>
-      <c r="F87" s="56"/>
+      <c r="E87" s="57"/>
+      <c r="F87" s="58"/>
       <c r="G87" s="37"/>
       <c r="H87" s="37"/>
       <c r="I87" s="37"/>
@@ -4015,23 +4213,23 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q87" s="46"/>
-      <c r="R87" s="47"/>
-      <c r="S87" s="47"/>
-      <c r="T87" s="47"/>
-      <c r="U87" s="47"/>
-      <c r="V87" s="47"/>
-      <c r="W87" s="47"/>
-    </row>
-    <row r="88" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q87" s="55"/>
+      <c r="R87" s="55"/>
+      <c r="S87" s="55"/>
+      <c r="T87" s="55"/>
+      <c r="U87" s="55"/>
+      <c r="V87" s="55"/>
+      <c r="W87" s="55"/>
+    </row>
+    <row r="88" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="32"/>
       <c r="B88" s="33">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C88" s="38"/>
       <c r="D88" s="39"/>
-      <c r="E88" s="60"/>
-      <c r="F88" s="56"/>
+      <c r="E88" s="57"/>
+      <c r="F88" s="58"/>
       <c r="G88" s="37"/>
       <c r="H88" s="37"/>
       <c r="I88" s="37"/>
@@ -4051,23 +4249,23 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q88" s="46"/>
-      <c r="R88" s="47"/>
-      <c r="S88" s="47"/>
-      <c r="T88" s="47"/>
-      <c r="U88" s="47"/>
-      <c r="V88" s="47"/>
-      <c r="W88" s="47"/>
-    </row>
-    <row r="89" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q88" s="55"/>
+      <c r="R88" s="55"/>
+      <c r="S88" s="55"/>
+      <c r="T88" s="55"/>
+      <c r="U88" s="55"/>
+      <c r="V88" s="55"/>
+      <c r="W88" s="55"/>
+    </row>
+    <row r="89" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="32"/>
       <c r="B89" s="33">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C89" s="38"/>
       <c r="D89" s="39"/>
-      <c r="E89" s="60"/>
-      <c r="F89" s="56"/>
+      <c r="E89" s="57"/>
+      <c r="F89" s="58"/>
       <c r="G89" s="37"/>
       <c r="H89" s="37"/>
       <c r="I89" s="37"/>
@@ -4087,23 +4285,23 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q89" s="46"/>
-      <c r="R89" s="47"/>
-      <c r="S89" s="47"/>
-      <c r="T89" s="47"/>
-      <c r="U89" s="47"/>
-      <c r="V89" s="47"/>
-      <c r="W89" s="47"/>
-    </row>
-    <row r="90" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q89" s="55"/>
+      <c r="R89" s="55"/>
+      <c r="S89" s="55"/>
+      <c r="T89" s="55"/>
+      <c r="U89" s="55"/>
+      <c r="V89" s="55"/>
+      <c r="W89" s="55"/>
+    </row>
+    <row r="90" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="32"/>
       <c r="B90" s="33">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C90" s="38"/>
       <c r="D90" s="39"/>
-      <c r="E90" s="60"/>
-      <c r="F90" s="56"/>
+      <c r="E90" s="57"/>
+      <c r="F90" s="58"/>
       <c r="G90" s="37"/>
       <c r="H90" s="37"/>
       <c r="I90" s="37"/>
@@ -4123,23 +4321,23 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q90" s="46"/>
-      <c r="R90" s="47"/>
-      <c r="S90" s="47"/>
-      <c r="T90" s="47"/>
-      <c r="U90" s="47"/>
-      <c r="V90" s="47"/>
-      <c r="W90" s="47"/>
-    </row>
-    <row r="91" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q90" s="55"/>
+      <c r="R90" s="56"/>
+      <c r="S90" s="56"/>
+      <c r="T90" s="56"/>
+      <c r="U90" s="56"/>
+      <c r="V90" s="56"/>
+      <c r="W90" s="56"/>
+    </row>
+    <row r="91" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="32"/>
       <c r="B91" s="33">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C91" s="38"/>
       <c r="D91" s="39"/>
-      <c r="E91" s="60"/>
-      <c r="F91" s="56"/>
+      <c r="E91" s="57"/>
+      <c r="F91" s="58"/>
       <c r="G91" s="37"/>
       <c r="H91" s="37"/>
       <c r="I91" s="37"/>
@@ -4159,23 +4357,23 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q91" s="46"/>
-      <c r="R91" s="47"/>
-      <c r="S91" s="47"/>
-      <c r="T91" s="47"/>
-      <c r="U91" s="47"/>
-      <c r="V91" s="47"/>
-      <c r="W91" s="47"/>
-    </row>
-    <row r="92" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q91" s="55"/>
+      <c r="R91" s="56"/>
+      <c r="S91" s="56"/>
+      <c r="T91" s="56"/>
+      <c r="U91" s="56"/>
+      <c r="V91" s="56"/>
+      <c r="W91" s="56"/>
+    </row>
+    <row r="92" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="32"/>
       <c r="B92" s="33">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C92" s="38"/>
       <c r="D92" s="39"/>
-      <c r="E92" s="60"/>
-      <c r="F92" s="56"/>
+      <c r="E92" s="57"/>
+      <c r="F92" s="58"/>
       <c r="G92" s="37"/>
       <c r="H92" s="37"/>
       <c r="I92" s="37"/>
@@ -4195,23 +4393,23 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q92" s="46"/>
-      <c r="R92" s="47"/>
-      <c r="S92" s="47"/>
-      <c r="T92" s="47"/>
-      <c r="U92" s="47"/>
-      <c r="V92" s="47"/>
-      <c r="W92" s="47"/>
-    </row>
-    <row r="93" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q92" s="55"/>
+      <c r="R92" s="56"/>
+      <c r="S92" s="56"/>
+      <c r="T92" s="56"/>
+      <c r="U92" s="56"/>
+      <c r="V92" s="56"/>
+      <c r="W92" s="56"/>
+    </row>
+    <row r="93" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="32"/>
       <c r="B93" s="33">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C93" s="38"/>
       <c r="D93" s="39"/>
-      <c r="E93" s="60"/>
-      <c r="F93" s="56"/>
+      <c r="E93" s="57"/>
+      <c r="F93" s="58"/>
       <c r="G93" s="37"/>
       <c r="H93" s="37"/>
       <c r="I93" s="37"/>
@@ -4231,23 +4429,23 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q93" s="46"/>
-      <c r="R93" s="47"/>
-      <c r="S93" s="47"/>
-      <c r="T93" s="47"/>
-      <c r="U93" s="47"/>
-      <c r="V93" s="47"/>
-      <c r="W93" s="47"/>
-    </row>
-    <row r="94" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q93" s="55"/>
+      <c r="R93" s="56"/>
+      <c r="S93" s="56"/>
+      <c r="T93" s="56"/>
+      <c r="U93" s="56"/>
+      <c r="V93" s="56"/>
+      <c r="W93" s="56"/>
+    </row>
+    <row r="94" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="32"/>
       <c r="B94" s="33">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C94" s="38"/>
       <c r="D94" s="39"/>
-      <c r="E94" s="60"/>
-      <c r="F94" s="56"/>
+      <c r="E94" s="57"/>
+      <c r="F94" s="58"/>
       <c r="G94" s="37"/>
       <c r="H94" s="37"/>
       <c r="I94" s="37"/>
@@ -4267,23 +4465,23 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q94" s="46"/>
-      <c r="R94" s="47"/>
-      <c r="S94" s="47"/>
-      <c r="T94" s="47"/>
-      <c r="U94" s="47"/>
-      <c r="V94" s="47"/>
-      <c r="W94" s="47"/>
-    </row>
-    <row r="95" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q94" s="55"/>
+      <c r="R94" s="56"/>
+      <c r="S94" s="56"/>
+      <c r="T94" s="56"/>
+      <c r="U94" s="56"/>
+      <c r="V94" s="56"/>
+      <c r="W94" s="56"/>
+    </row>
+    <row r="95" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="32"/>
       <c r="B95" s="33">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C95" s="38"/>
       <c r="D95" s="39"/>
-      <c r="E95" s="60"/>
-      <c r="F95" s="56"/>
+      <c r="E95" s="57"/>
+      <c r="F95" s="58"/>
       <c r="G95" s="37"/>
       <c r="H95" s="37"/>
       <c r="I95" s="37"/>
@@ -4303,23 +4501,23 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q95" s="46"/>
-      <c r="R95" s="47"/>
-      <c r="S95" s="47"/>
-      <c r="T95" s="47"/>
-      <c r="U95" s="47"/>
-      <c r="V95" s="47"/>
-      <c r="W95" s="47"/>
-    </row>
-    <row r="96" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q95" s="55"/>
+      <c r="R95" s="56"/>
+      <c r="S95" s="56"/>
+      <c r="T95" s="56"/>
+      <c r="U95" s="56"/>
+      <c r="V95" s="56"/>
+      <c r="W95" s="56"/>
+    </row>
+    <row r="96" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="32"/>
       <c r="B96" s="33">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C96" s="38"/>
       <c r="D96" s="39"/>
-      <c r="E96" s="60"/>
-      <c r="F96" s="56"/>
+      <c r="E96" s="57"/>
+      <c r="F96" s="58"/>
       <c r="G96" s="37"/>
       <c r="H96" s="37"/>
       <c r="I96" s="37"/>
@@ -4339,23 +4537,23 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q96" s="46"/>
-      <c r="R96" s="47"/>
-      <c r="S96" s="47"/>
-      <c r="T96" s="47"/>
-      <c r="U96" s="47"/>
-      <c r="V96" s="47"/>
-      <c r="W96" s="47"/>
-    </row>
-    <row r="97" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q96" s="55"/>
+      <c r="R96" s="56"/>
+      <c r="S96" s="56"/>
+      <c r="T96" s="56"/>
+      <c r="U96" s="56"/>
+      <c r="V96" s="56"/>
+      <c r="W96" s="56"/>
+    </row>
+    <row r="97" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="32"/>
       <c r="B97" s="33">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C97" s="38"/>
       <c r="D97" s="39"/>
-      <c r="E97" s="60"/>
-      <c r="F97" s="56"/>
+      <c r="E97" s="57"/>
+      <c r="F97" s="58"/>
       <c r="G97" s="37"/>
       <c r="H97" s="37"/>
       <c r="I97" s="37"/>
@@ -4375,23 +4573,23 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q97" s="46"/>
-      <c r="R97" s="47"/>
-      <c r="S97" s="47"/>
-      <c r="T97" s="47"/>
-      <c r="U97" s="47"/>
-      <c r="V97" s="47"/>
-      <c r="W97" s="47"/>
-    </row>
-    <row r="98" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q97" s="55"/>
+      <c r="R97" s="56"/>
+      <c r="S97" s="56"/>
+      <c r="T97" s="56"/>
+      <c r="U97" s="56"/>
+      <c r="V97" s="56"/>
+      <c r="W97" s="56"/>
+    </row>
+    <row r="98" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="32"/>
       <c r="B98" s="33">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C98" s="38"/>
       <c r="D98" s="39"/>
-      <c r="E98" s="60"/>
-      <c r="F98" s="56"/>
+      <c r="E98" s="57"/>
+      <c r="F98" s="58"/>
       <c r="G98" s="37"/>
       <c r="H98" s="37"/>
       <c r="I98" s="37"/>
@@ -4411,23 +4609,23 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q98" s="46"/>
-      <c r="R98" s="47"/>
-      <c r="S98" s="47"/>
-      <c r="T98" s="47"/>
-      <c r="U98" s="47"/>
-      <c r="V98" s="47"/>
-      <c r="W98" s="47"/>
-    </row>
-    <row r="99" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q98" s="55"/>
+      <c r="R98" s="56"/>
+      <c r="S98" s="56"/>
+      <c r="T98" s="56"/>
+      <c r="U98" s="56"/>
+      <c r="V98" s="56"/>
+      <c r="W98" s="56"/>
+    </row>
+    <row r="99" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="32"/>
       <c r="B99" s="33">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C99" s="38"/>
       <c r="D99" s="39"/>
-      <c r="E99" s="60"/>
-      <c r="F99" s="56"/>
+      <c r="E99" s="57"/>
+      <c r="F99" s="58"/>
       <c r="G99" s="37"/>
       <c r="H99" s="37"/>
       <c r="I99" s="37"/>
@@ -4447,23 +4645,23 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q99" s="46"/>
-      <c r="R99" s="47"/>
-      <c r="S99" s="47"/>
-      <c r="T99" s="47"/>
-      <c r="U99" s="47"/>
-      <c r="V99" s="47"/>
-      <c r="W99" s="47"/>
-    </row>
-    <row r="100" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q99" s="55"/>
+      <c r="R99" s="56"/>
+      <c r="S99" s="56"/>
+      <c r="T99" s="56"/>
+      <c r="U99" s="56"/>
+      <c r="V99" s="56"/>
+      <c r="W99" s="56"/>
+    </row>
+    <row r="100" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="32"/>
       <c r="B100" s="33">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C100" s="38"/>
       <c r="D100" s="39"/>
-      <c r="E100" s="60"/>
-      <c r="F100" s="56"/>
+      <c r="E100" s="57"/>
+      <c r="F100" s="58"/>
       <c r="G100" s="37"/>
       <c r="H100" s="37"/>
       <c r="I100" s="37"/>
@@ -4483,23 +4681,23 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q100" s="46"/>
-      <c r="R100" s="47"/>
-      <c r="S100" s="47"/>
-      <c r="T100" s="47"/>
-      <c r="U100" s="47"/>
-      <c r="V100" s="47"/>
-      <c r="W100" s="47"/>
-    </row>
-    <row r="101" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q100" s="55"/>
+      <c r="R100" s="56"/>
+      <c r="S100" s="56"/>
+      <c r="T100" s="56"/>
+      <c r="U100" s="56"/>
+      <c r="V100" s="56"/>
+      <c r="W100" s="56"/>
+    </row>
+    <row r="101" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="32"/>
       <c r="B101" s="33">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C101" s="38"/>
       <c r="D101" s="39"/>
-      <c r="E101" s="60"/>
-      <c r="F101" s="56"/>
+      <c r="E101" s="57"/>
+      <c r="F101" s="58"/>
       <c r="G101" s="37"/>
       <c r="H101" s="37"/>
       <c r="I101" s="37"/>
@@ -4519,23 +4717,23 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q101" s="46"/>
-      <c r="R101" s="47"/>
-      <c r="S101" s="47"/>
-      <c r="T101" s="47"/>
-      <c r="U101" s="47"/>
-      <c r="V101" s="47"/>
-      <c r="W101" s="47"/>
-    </row>
-    <row r="102" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q101" s="55"/>
+      <c r="R101" s="56"/>
+      <c r="S101" s="56"/>
+      <c r="T101" s="56"/>
+      <c r="U101" s="56"/>
+      <c r="V101" s="56"/>
+      <c r="W101" s="56"/>
+    </row>
+    <row r="102" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="32"/>
       <c r="B102" s="33">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C102" s="38"/>
       <c r="D102" s="39"/>
-      <c r="E102" s="60"/>
-      <c r="F102" s="56"/>
+      <c r="E102" s="57"/>
+      <c r="F102" s="58"/>
       <c r="G102" s="37"/>
       <c r="H102" s="37"/>
       <c r="I102" s="37"/>
@@ -4555,23 +4753,23 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q102" s="46"/>
-      <c r="R102" s="47"/>
-      <c r="S102" s="47"/>
-      <c r="T102" s="47"/>
-      <c r="U102" s="47"/>
-      <c r="V102" s="47"/>
-      <c r="W102" s="47"/>
-    </row>
-    <row r="103" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q102" s="55"/>
+      <c r="R102" s="56"/>
+      <c r="S102" s="56"/>
+      <c r="T102" s="56"/>
+      <c r="U102" s="56"/>
+      <c r="V102" s="56"/>
+      <c r="W102" s="56"/>
+    </row>
+    <row r="103" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="32"/>
       <c r="B103" s="33">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C103" s="38"/>
       <c r="D103" s="39"/>
-      <c r="E103" s="60"/>
-      <c r="F103" s="56"/>
+      <c r="E103" s="57"/>
+      <c r="F103" s="58"/>
       <c r="G103" s="37"/>
       <c r="H103" s="37"/>
       <c r="I103" s="37"/>
@@ -4591,23 +4789,23 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q103" s="46"/>
-      <c r="R103" s="47"/>
-      <c r="S103" s="47"/>
-      <c r="T103" s="47"/>
-      <c r="U103" s="47"/>
-      <c r="V103" s="47"/>
-      <c r="W103" s="47"/>
-    </row>
-    <row r="104" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q103" s="55"/>
+      <c r="R103" s="56"/>
+      <c r="S103" s="56"/>
+      <c r="T103" s="56"/>
+      <c r="U103" s="56"/>
+      <c r="V103" s="56"/>
+      <c r="W103" s="56"/>
+    </row>
+    <row r="104" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="32"/>
       <c r="B104" s="33">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C104" s="38"/>
       <c r="D104" s="39"/>
-      <c r="E104" s="60"/>
-      <c r="F104" s="56"/>
+      <c r="E104" s="57"/>
+      <c r="F104" s="58"/>
       <c r="G104" s="37"/>
       <c r="H104" s="37"/>
       <c r="I104" s="37"/>
@@ -4627,23 +4825,23 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q104" s="46"/>
-      <c r="R104" s="47"/>
-      <c r="S104" s="47"/>
-      <c r="T104" s="47"/>
-      <c r="U104" s="47"/>
-      <c r="V104" s="47"/>
-      <c r="W104" s="47"/>
-    </row>
-    <row r="105" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q104" s="55"/>
+      <c r="R104" s="56"/>
+      <c r="S104" s="56"/>
+      <c r="T104" s="56"/>
+      <c r="U104" s="56"/>
+      <c r="V104" s="56"/>
+      <c r="W104" s="56"/>
+    </row>
+    <row r="105" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="32"/>
       <c r="B105" s="33">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C105" s="38"/>
       <c r="D105" s="39"/>
-      <c r="E105" s="60"/>
-      <c r="F105" s="56"/>
+      <c r="E105" s="57"/>
+      <c r="F105" s="58"/>
       <c r="G105" s="37"/>
       <c r="H105" s="37"/>
       <c r="I105" s="37"/>
@@ -4663,23 +4861,23 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q105" s="46"/>
-      <c r="R105" s="47"/>
-      <c r="S105" s="47"/>
-      <c r="T105" s="47"/>
-      <c r="U105" s="47"/>
-      <c r="V105" s="47"/>
-      <c r="W105" s="47"/>
-    </row>
-    <row r="106" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q105" s="55"/>
+      <c r="R105" s="56"/>
+      <c r="S105" s="56"/>
+      <c r="T105" s="56"/>
+      <c r="U105" s="56"/>
+      <c r="V105" s="56"/>
+      <c r="W105" s="56"/>
+    </row>
+    <row r="106" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="32"/>
       <c r="B106" s="33">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C106" s="38"/>
       <c r="D106" s="39"/>
-      <c r="E106" s="60"/>
-      <c r="F106" s="56"/>
+      <c r="E106" s="57"/>
+      <c r="F106" s="58"/>
       <c r="G106" s="37"/>
       <c r="H106" s="37"/>
       <c r="I106" s="37"/>
@@ -4699,23 +4897,23 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q106" s="46"/>
-      <c r="R106" s="47"/>
-      <c r="S106" s="47"/>
-      <c r="T106" s="47"/>
-      <c r="U106" s="47"/>
-      <c r="V106" s="47"/>
-      <c r="W106" s="47"/>
-    </row>
-    <row r="107" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q106" s="55"/>
+      <c r="R106" s="56"/>
+      <c r="S106" s="56"/>
+      <c r="T106" s="56"/>
+      <c r="U106" s="56"/>
+      <c r="V106" s="56"/>
+      <c r="W106" s="56"/>
+    </row>
+    <row r="107" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="32"/>
       <c r="B107" s="33">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C107" s="38"/>
       <c r="D107" s="39"/>
-      <c r="E107" s="60"/>
-      <c r="F107" s="56"/>
+      <c r="E107" s="57"/>
+      <c r="F107" s="58"/>
       <c r="G107" s="37"/>
       <c r="H107" s="37"/>
       <c r="I107" s="37"/>
@@ -4735,23 +4933,23 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q107" s="46"/>
-      <c r="R107" s="47"/>
-      <c r="S107" s="47"/>
-      <c r="T107" s="47"/>
-      <c r="U107" s="47"/>
-      <c r="V107" s="47"/>
-      <c r="W107" s="47"/>
-    </row>
-    <row r="108" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q107" s="55"/>
+      <c r="R107" s="56"/>
+      <c r="S107" s="56"/>
+      <c r="T107" s="56"/>
+      <c r="U107" s="56"/>
+      <c r="V107" s="56"/>
+      <c r="W107" s="56"/>
+    </row>
+    <row r="108" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="32"/>
       <c r="B108" s="33">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C108" s="38"/>
       <c r="D108" s="39"/>
-      <c r="E108" s="60"/>
-      <c r="F108" s="56"/>
+      <c r="E108" s="57"/>
+      <c r="F108" s="58"/>
       <c r="G108" s="37"/>
       <c r="H108" s="37"/>
       <c r="I108" s="37"/>
@@ -4771,23 +4969,23 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q108" s="46"/>
-      <c r="R108" s="47"/>
-      <c r="S108" s="47"/>
-      <c r="T108" s="47"/>
-      <c r="U108" s="47"/>
-      <c r="V108" s="47"/>
-      <c r="W108" s="47"/>
-    </row>
-    <row r="109" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q108" s="55"/>
+      <c r="R108" s="56"/>
+      <c r="S108" s="56"/>
+      <c r="T108" s="56"/>
+      <c r="U108" s="56"/>
+      <c r="V108" s="56"/>
+      <c r="W108" s="56"/>
+    </row>
+    <row r="109" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="32"/>
       <c r="B109" s="33">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C109" s="38"/>
       <c r="D109" s="39"/>
-      <c r="E109" s="60"/>
-      <c r="F109" s="56"/>
+      <c r="E109" s="57"/>
+      <c r="F109" s="58"/>
       <c r="G109" s="37"/>
       <c r="H109" s="37"/>
       <c r="I109" s="37"/>
@@ -4807,63 +5005,435 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q109" s="46"/>
-      <c r="R109" s="47"/>
-      <c r="S109" s="47"/>
-      <c r="T109" s="47"/>
-      <c r="U109" s="47"/>
-      <c r="V109" s="47"/>
-      <c r="W109" s="47"/>
+      <c r="Q109" s="55"/>
+      <c r="R109" s="56"/>
+      <c r="S109" s="56"/>
+      <c r="T109" s="56"/>
+      <c r="U109" s="56"/>
+      <c r="V109" s="56"/>
+      <c r="W109" s="56"/>
+    </row>
+    <row r="110" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="32"/>
+      <c r="B110" s="33">
+        <v>91</v>
+      </c>
+      <c r="C110" s="38"/>
+      <c r="D110" s="39"/>
+      <c r="E110" s="57"/>
+      <c r="F110" s="58"/>
+      <c r="G110" s="37"/>
+      <c r="H110" s="37"/>
+      <c r="I110" s="37"/>
+      <c r="J110" s="37"/>
+      <c r="K110" s="37"/>
+      <c r="L110" s="37"/>
+      <c r="M110" s="35"/>
+      <c r="N110" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O110" s="36">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P110" s="36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q110" s="55"/>
+      <c r="R110" s="56"/>
+      <c r="S110" s="56"/>
+      <c r="T110" s="56"/>
+      <c r="U110" s="56"/>
+      <c r="V110" s="56"/>
+      <c r="W110" s="56"/>
+    </row>
+    <row r="111" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="32"/>
+      <c r="B111" s="33">
+        <v>92</v>
+      </c>
+      <c r="C111" s="38"/>
+      <c r="D111" s="39"/>
+      <c r="E111" s="57"/>
+      <c r="F111" s="58"/>
+      <c r="G111" s="37"/>
+      <c r="H111" s="37"/>
+      <c r="I111" s="37"/>
+      <c r="J111" s="37"/>
+      <c r="K111" s="37"/>
+      <c r="L111" s="37"/>
+      <c r="M111" s="35"/>
+      <c r="N111" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O111" s="36">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P111" s="36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q111" s="55"/>
+      <c r="R111" s="56"/>
+      <c r="S111" s="56"/>
+      <c r="T111" s="56"/>
+      <c r="U111" s="56"/>
+      <c r="V111" s="56"/>
+      <c r="W111" s="56"/>
+    </row>
+    <row r="112" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="32"/>
+      <c r="B112" s="33">
+        <v>93</v>
+      </c>
+      <c r="C112" s="38"/>
+      <c r="D112" s="39"/>
+      <c r="E112" s="57"/>
+      <c r="F112" s="58"/>
+      <c r="G112" s="37"/>
+      <c r="H112" s="37"/>
+      <c r="I112" s="37"/>
+      <c r="J112" s="37"/>
+      <c r="K112" s="37"/>
+      <c r="L112" s="37"/>
+      <c r="M112" s="35"/>
+      <c r="N112" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O112" s="36">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P112" s="36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q112" s="55"/>
+      <c r="R112" s="56"/>
+      <c r="S112" s="56"/>
+      <c r="T112" s="56"/>
+      <c r="U112" s="56"/>
+      <c r="V112" s="56"/>
+      <c r="W112" s="56"/>
+    </row>
+    <row r="113" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="32"/>
+      <c r="B113" s="33">
+        <v>94</v>
+      </c>
+      <c r="C113" s="38"/>
+      <c r="D113" s="39"/>
+      <c r="E113" s="57"/>
+      <c r="F113" s="58"/>
+      <c r="G113" s="37"/>
+      <c r="H113" s="37"/>
+      <c r="I113" s="37"/>
+      <c r="J113" s="37"/>
+      <c r="K113" s="37"/>
+      <c r="L113" s="37"/>
+      <c r="M113" s="35"/>
+      <c r="N113" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O113" s="36">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P113" s="36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q113" s="55"/>
+      <c r="R113" s="56"/>
+      <c r="S113" s="56"/>
+      <c r="T113" s="56"/>
+      <c r="U113" s="56"/>
+      <c r="V113" s="56"/>
+      <c r="W113" s="56"/>
+    </row>
+    <row r="114" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="32"/>
+      <c r="B114" s="33">
+        <v>95</v>
+      </c>
+      <c r="C114" s="38"/>
+      <c r="D114" s="39"/>
+      <c r="E114" s="57"/>
+      <c r="F114" s="58"/>
+      <c r="G114" s="37"/>
+      <c r="H114" s="37"/>
+      <c r="I114" s="37"/>
+      <c r="J114" s="37"/>
+      <c r="K114" s="37"/>
+      <c r="L114" s="37"/>
+      <c r="M114" s="35"/>
+      <c r="N114" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O114" s="36">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P114" s="36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q114" s="55"/>
+      <c r="R114" s="56"/>
+      <c r="S114" s="56"/>
+      <c r="T114" s="56"/>
+      <c r="U114" s="56"/>
+      <c r="V114" s="56"/>
+      <c r="W114" s="56"/>
+    </row>
+    <row r="115" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="32"/>
+      <c r="B115" s="33">
+        <v>96</v>
+      </c>
+      <c r="C115" s="38"/>
+      <c r="D115" s="39"/>
+      <c r="E115" s="57"/>
+      <c r="F115" s="58"/>
+      <c r="G115" s="37"/>
+      <c r="H115" s="37"/>
+      <c r="I115" s="37"/>
+      <c r="J115" s="37"/>
+      <c r="K115" s="37"/>
+      <c r="L115" s="37"/>
+      <c r="M115" s="35"/>
+      <c r="N115" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O115" s="36">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P115" s="36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q115" s="55"/>
+      <c r="R115" s="56"/>
+      <c r="S115" s="56"/>
+      <c r="T115" s="56"/>
+      <c r="U115" s="56"/>
+      <c r="V115" s="56"/>
+      <c r="W115" s="56"/>
+    </row>
+    <row r="116" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="32"/>
+      <c r="B116" s="33">
+        <v>97</v>
+      </c>
+      <c r="C116" s="38"/>
+      <c r="D116" s="39"/>
+      <c r="E116" s="57"/>
+      <c r="F116" s="58"/>
+      <c r="G116" s="37"/>
+      <c r="H116" s="37"/>
+      <c r="I116" s="37"/>
+      <c r="J116" s="37"/>
+      <c r="K116" s="37"/>
+      <c r="L116" s="37"/>
+      <c r="M116" s="35"/>
+      <c r="N116" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O116" s="36">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P116" s="36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q116" s="55"/>
+      <c r="R116" s="56"/>
+      <c r="S116" s="56"/>
+      <c r="T116" s="56"/>
+      <c r="U116" s="56"/>
+      <c r="V116" s="56"/>
+      <c r="W116" s="56"/>
+    </row>
+    <row r="117" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="32"/>
+      <c r="B117" s="33">
+        <v>98</v>
+      </c>
+      <c r="C117" s="38"/>
+      <c r="D117" s="39"/>
+      <c r="E117" s="57"/>
+      <c r="F117" s="58"/>
+      <c r="G117" s="37"/>
+      <c r="H117" s="37"/>
+      <c r="I117" s="37"/>
+      <c r="J117" s="37"/>
+      <c r="K117" s="37"/>
+      <c r="L117" s="37"/>
+      <c r="M117" s="35"/>
+      <c r="N117" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O117" s="36">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P117" s="36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q117" s="55"/>
+      <c r="R117" s="56"/>
+      <c r="S117" s="56"/>
+      <c r="T117" s="56"/>
+      <c r="U117" s="56"/>
+      <c r="V117" s="56"/>
+      <c r="W117" s="56"/>
     </row>
   </sheetData>
-  <mergeCells count="210">
-    <mergeCell ref="Q55:W55"/>
-    <mergeCell ref="Q56:W56"/>
-    <mergeCell ref="Q57:W57"/>
-    <mergeCell ref="Q58:W58"/>
-    <mergeCell ref="Q59:W59"/>
-    <mergeCell ref="Q60:W60"/>
-    <mergeCell ref="Q46:W46"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="Q47:W47"/>
-    <mergeCell ref="Q48:W48"/>
+  <mergeCells count="214">
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="Q14:W14"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="Q16:W16"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:P2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:P3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:P4"/>
+    <mergeCell ref="F5:P5"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F8:J8"/>
+    <mergeCell ref="F6:P6"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E30:F30"/>
     <mergeCell ref="Q49:W49"/>
     <mergeCell ref="Q50:W50"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="Q23:W23"/>
+    <mergeCell ref="Q24:W24"/>
+    <mergeCell ref="Q25:W25"/>
+    <mergeCell ref="Q28:W28"/>
+    <mergeCell ref="Q29:W29"/>
+    <mergeCell ref="Q30:W30"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="Q40:W40"/>
+    <mergeCell ref="Q41:W41"/>
+    <mergeCell ref="Q32:W32"/>
+    <mergeCell ref="Q33:W33"/>
+    <mergeCell ref="Q34:W34"/>
+    <mergeCell ref="Q35:W35"/>
+    <mergeCell ref="Q36:W36"/>
+    <mergeCell ref="Q37:W37"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="Q42:W42"/>
+    <mergeCell ref="Q43:W43"/>
+    <mergeCell ref="Q44:W44"/>
+    <mergeCell ref="Q38:W38"/>
+    <mergeCell ref="Q39:W39"/>
+    <mergeCell ref="Q69:W69"/>
+    <mergeCell ref="Q70:W70"/>
+    <mergeCell ref="Q71:W71"/>
+    <mergeCell ref="Q72:W72"/>
     <mergeCell ref="Q51:W51"/>
     <mergeCell ref="Q52:W52"/>
     <mergeCell ref="Q53:W53"/>
-    <mergeCell ref="Q54:W54"/>
-    <mergeCell ref="Q43:W43"/>
-    <mergeCell ref="Q44:W44"/>
-    <mergeCell ref="Q45:W45"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="Q104:W104"/>
-    <mergeCell ref="Q105:W105"/>
-    <mergeCell ref="Q106:W106"/>
-    <mergeCell ref="Q107:W107"/>
-    <mergeCell ref="Q108:W108"/>
-    <mergeCell ref="Q109:W109"/>
-    <mergeCell ref="Q96:W96"/>
-    <mergeCell ref="Q97:W97"/>
-    <mergeCell ref="Q98:W98"/>
-    <mergeCell ref="Q99:W99"/>
-    <mergeCell ref="Q100:W100"/>
-    <mergeCell ref="Q101:W101"/>
-    <mergeCell ref="Q102:W102"/>
-    <mergeCell ref="Q88:W88"/>
-    <mergeCell ref="Q89:W89"/>
-    <mergeCell ref="Q90:W90"/>
-    <mergeCell ref="Q91:W91"/>
-    <mergeCell ref="Q92:W92"/>
-    <mergeCell ref="Q93:W93"/>
-    <mergeCell ref="Q94:W94"/>
-    <mergeCell ref="Q95:W95"/>
-    <mergeCell ref="Q103:W103"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="Q63:W63"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="E82:F82"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="E85:F85"/>
+    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="E88:F88"/>
+    <mergeCell ref="E89:F89"/>
+    <mergeCell ref="E90:F90"/>
+    <mergeCell ref="E91:F91"/>
+    <mergeCell ref="E92:F92"/>
+    <mergeCell ref="E93:F93"/>
+    <mergeCell ref="E94:F94"/>
+    <mergeCell ref="E95:F95"/>
+    <mergeCell ref="E96:F96"/>
+    <mergeCell ref="E97:F97"/>
+    <mergeCell ref="E98:F98"/>
+    <mergeCell ref="E99:F99"/>
+    <mergeCell ref="E100:F100"/>
+    <mergeCell ref="E101:F101"/>
+    <mergeCell ref="E102:F102"/>
+    <mergeCell ref="E110:F110"/>
+    <mergeCell ref="E111:F111"/>
+    <mergeCell ref="E112:F112"/>
+    <mergeCell ref="E113:F113"/>
+    <mergeCell ref="E114:F114"/>
+    <mergeCell ref="E115:F115"/>
+    <mergeCell ref="E116:F116"/>
+    <mergeCell ref="E117:F117"/>
+    <mergeCell ref="E103:F103"/>
+    <mergeCell ref="E104:F104"/>
+    <mergeCell ref="E105:F105"/>
+    <mergeCell ref="E106:F106"/>
+    <mergeCell ref="E107:F107"/>
+    <mergeCell ref="E108:F108"/>
+    <mergeCell ref="E109:F109"/>
+    <mergeCell ref="Q73:W73"/>
+    <mergeCell ref="Q74:W74"/>
+    <mergeCell ref="Q75:W75"/>
+    <mergeCell ref="Q76:W76"/>
+    <mergeCell ref="Q77:W77"/>
+    <mergeCell ref="Q78:W78"/>
     <mergeCell ref="Q79:W79"/>
     <mergeCell ref="Q80:W80"/>
     <mergeCell ref="Q81:W81"/>
@@ -4873,160 +5443,80 @@
     <mergeCell ref="Q85:W85"/>
     <mergeCell ref="Q86:W86"/>
     <mergeCell ref="Q87:W87"/>
-    <mergeCell ref="Q70:W70"/>
-    <mergeCell ref="Q71:W71"/>
-    <mergeCell ref="Q72:W72"/>
-    <mergeCell ref="Q73:W73"/>
-    <mergeCell ref="Q74:W74"/>
-    <mergeCell ref="Q75:W75"/>
-    <mergeCell ref="Q76:W76"/>
-    <mergeCell ref="Q77:W77"/>
-    <mergeCell ref="Q78:W78"/>
+    <mergeCell ref="Q88:W88"/>
+    <mergeCell ref="Q89:W89"/>
+    <mergeCell ref="Q90:W90"/>
+    <mergeCell ref="Q91:W91"/>
+    <mergeCell ref="Q92:W92"/>
+    <mergeCell ref="Q93:W93"/>
+    <mergeCell ref="Q94:W94"/>
+    <mergeCell ref="Q95:W95"/>
+    <mergeCell ref="Q96:W96"/>
+    <mergeCell ref="Q97:W97"/>
+    <mergeCell ref="Q98:W98"/>
+    <mergeCell ref="Q99:W99"/>
+    <mergeCell ref="Q100:W100"/>
+    <mergeCell ref="Q101:W101"/>
+    <mergeCell ref="Q102:W102"/>
+    <mergeCell ref="Q103:W103"/>
+    <mergeCell ref="Q111:W111"/>
+    <mergeCell ref="Q112:W112"/>
+    <mergeCell ref="Q113:W113"/>
+    <mergeCell ref="Q114:W114"/>
+    <mergeCell ref="Q115:W115"/>
+    <mergeCell ref="Q116:W116"/>
+    <mergeCell ref="Q117:W117"/>
+    <mergeCell ref="Q104:W104"/>
+    <mergeCell ref="Q105:W105"/>
+    <mergeCell ref="Q106:W106"/>
+    <mergeCell ref="Q107:W107"/>
+    <mergeCell ref="Q108:W108"/>
+    <mergeCell ref="Q109:W109"/>
+    <mergeCell ref="Q110:W110"/>
+    <mergeCell ref="Q67:W67"/>
+    <mergeCell ref="Q68:W68"/>
+    <mergeCell ref="Q54:W54"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="Q55:W55"/>
+    <mergeCell ref="Q56:W56"/>
+    <mergeCell ref="Q57:W57"/>
+    <mergeCell ref="Q58:W58"/>
+    <mergeCell ref="Q59:W59"/>
+    <mergeCell ref="Q60:W60"/>
     <mergeCell ref="Q61:W61"/>
     <mergeCell ref="Q62:W62"/>
-    <mergeCell ref="Q63:W63"/>
-    <mergeCell ref="Q64:W64"/>
-    <mergeCell ref="Q65:W65"/>
-    <mergeCell ref="Q66:W66"/>
-    <mergeCell ref="Q67:W67"/>
-    <mergeCell ref="Q68:W68"/>
-    <mergeCell ref="Q69:W69"/>
-    <mergeCell ref="E108:F108"/>
-    <mergeCell ref="E109:F109"/>
-    <mergeCell ref="E95:F95"/>
-    <mergeCell ref="E96:F96"/>
-    <mergeCell ref="E97:F97"/>
-    <mergeCell ref="E98:F98"/>
-    <mergeCell ref="E99:F99"/>
-    <mergeCell ref="E100:F100"/>
-    <mergeCell ref="E101:F101"/>
-    <mergeCell ref="E92:F92"/>
-    <mergeCell ref="E93:F93"/>
-    <mergeCell ref="E94:F94"/>
-    <mergeCell ref="E102:F102"/>
-    <mergeCell ref="E103:F103"/>
-    <mergeCell ref="E104:F104"/>
-    <mergeCell ref="E105:F105"/>
-    <mergeCell ref="E106:F106"/>
-    <mergeCell ref="E107:F107"/>
-    <mergeCell ref="E83:F83"/>
-    <mergeCell ref="E84:F84"/>
-    <mergeCell ref="E85:F85"/>
-    <mergeCell ref="E86:F86"/>
-    <mergeCell ref="E87:F87"/>
-    <mergeCell ref="E88:F88"/>
-    <mergeCell ref="E89:F89"/>
-    <mergeCell ref="E90:F90"/>
-    <mergeCell ref="E91:F91"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="E77:F77"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="E80:F80"/>
-    <mergeCell ref="E81:F81"/>
-    <mergeCell ref="E82:F82"/>
+    <mergeCell ref="E64:F64"/>
     <mergeCell ref="E65:F65"/>
     <mergeCell ref="E66:F66"/>
     <mergeCell ref="E67:F67"/>
     <mergeCell ref="E68:F68"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="E73:F73"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="E60:F60"/>
     <mergeCell ref="E61:F61"/>
     <mergeCell ref="E62:F62"/>
     <mergeCell ref="E63:F63"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="Q34:W34"/>
-    <mergeCell ref="Q35:W35"/>
-    <mergeCell ref="Q36:W36"/>
-    <mergeCell ref="Q30:W30"/>
-    <mergeCell ref="Q31:W31"/>
-    <mergeCell ref="Q23:W23"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="Q37:W37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="Q38:W38"/>
-    <mergeCell ref="Q39:W39"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="Q40:W40"/>
-    <mergeCell ref="Q41:W41"/>
-    <mergeCell ref="Q42:W42"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E21:F21"/>
     <mergeCell ref="E26:F26"/>
     <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="Q16:W16"/>
-    <mergeCell ref="Q17:W17"/>
-    <mergeCell ref="Q18:W18"/>
-    <mergeCell ref="Q19:W19"/>
-    <mergeCell ref="Q20:W20"/>
-    <mergeCell ref="Q21:W21"/>
-    <mergeCell ref="Q22:W22"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="Q32:W32"/>
-    <mergeCell ref="Q33:W33"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="Q14:W14"/>
-    <mergeCell ref="Q15:W15"/>
     <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="Q24:W24"/>
-    <mergeCell ref="Q25:W25"/>
-    <mergeCell ref="Q26:W26"/>
-    <mergeCell ref="Q27:W27"/>
-    <mergeCell ref="Q28:W28"/>
-    <mergeCell ref="Q29:W29"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:P2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:P3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F4:P4"/>
-    <mergeCell ref="F5:P5"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="Q12:W12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="Q13:W13"/>
+    <mergeCell ref="Q64:W64"/>
+    <mergeCell ref="Q65:W65"/>
+    <mergeCell ref="Q66:W66"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="Q31:W31"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="Q45:W45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="Q46:W46"/>
+    <mergeCell ref="Q47:W47"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="Q48:W48"/>
   </mergeCells>
   <printOptions horizontalCentered="1" gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -5043,252 +5533,252 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" customWidth="1"/>
-    <col min="2" max="20" width="9.28515625" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" customWidth="1"/>
+    <col min="2" max="20" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2">
+        <f>SUM('Meeting Protocol'!P14:P117)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="40" t="s">
         <v>24</v>
-      </c>
-      <c r="B2">
-        <f>SUM('Meeting Protocol'!P12:P109)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="40" t="s">
-        <v>25</v>
       </c>
       <c r="B3">
         <f>B14-B2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="40" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="41" t="e">
+        <v>25</v>
+      </c>
+      <c r="B4" s="41">
         <f>B2/B14</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0.41935483870967744</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="28"/>
       <c r="B6" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="42" t="s">
+      <c r="D6" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="42" t="s">
+      <c r="E6" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="42" t="s">
+      <c r="F6" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="42" t="s">
+      <c r="G6" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="42" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="44">
+        <f>SUM('Meeting Protocol'!H14:H117)</f>
+        <v>3</v>
+      </c>
+      <c r="C7" s="44">
+        <f>SUM('Meeting Protocol'!I14:I117)</f>
+        <v>8</v>
+      </c>
+      <c r="D7" s="44">
+        <f>SUM('Meeting Protocol'!J14:J117)</f>
+        <v>4</v>
+      </c>
+      <c r="E7" s="44">
+        <f>SUM('Meeting Protocol'!K14:K117)</f>
+        <v>5</v>
+      </c>
+      <c r="F7" s="44">
+        <f>SUM('Meeting Protocol'!L14:L117)</f>
+        <v>2</v>
+      </c>
+      <c r="G7" s="44">
+        <f>SUM('Meeting Protocol'!M14:M117)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="44">
-        <f>SUM('Meeting Protocol'!H12:H109)</f>
-        <v>0</v>
-      </c>
-      <c r="C7" s="44">
-        <f>SUM('Meeting Protocol'!I12:I109)</f>
-        <v>0</v>
-      </c>
-      <c r="D7" s="44">
-        <f>SUM('Meeting Protocol'!J12:J109)</f>
-        <v>0</v>
-      </c>
-      <c r="E7" s="44">
-        <f>SUM('Meeting Protocol'!K12:K109)</f>
-        <v>0</v>
-      </c>
-      <c r="F7" s="44">
-        <f>SUM('Meeting Protocol'!L12:L109)</f>
-        <v>0</v>
-      </c>
-      <c r="G7" s="44">
-        <f>SUM('Meeting Protocol'!M12:M109)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="40" t="s">
+      <c r="B8">
+        <f>SUMPRODUCT('Meeting Protocol'!H14:H117, 'Meeting Protocol'!$N14:$N117)</f>
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <f>SUMPRODUCT('Meeting Protocol'!I14:I117, 'Meeting Protocol'!$N14:$N117)</f>
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <f>SUMPRODUCT('Meeting Protocol'!J14:J117, 'Meeting Protocol'!$N14:$N117)</f>
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <f>SUMPRODUCT('Meeting Protocol'!K14:K117, 'Meeting Protocol'!$N14:$N117)</f>
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <f>SUMPRODUCT('Meeting Protocol'!L14:L117, 'Meeting Protocol'!$N14:$N117)</f>
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <f>SUMPRODUCT('Meeting Protocol'!M14:M117, 'Meeting Protocol'!$N14:$N117)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="B8">
-        <f>SUMPRODUCT('Meeting Protocol'!H12:H109, 'Meeting Protocol'!$N12:$N109)</f>
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <f>SUMPRODUCT('Meeting Protocol'!I12:I109, 'Meeting Protocol'!$N12:$N109)</f>
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <f>SUMPRODUCT('Meeting Protocol'!J12:J109, 'Meeting Protocol'!$N12:$N109)</f>
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <f>SUMPRODUCT('Meeting Protocol'!K12:K109, 'Meeting Protocol'!$N12:$N109)</f>
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <f>SUMPRODUCT('Meeting Protocol'!L12:L109, 'Meeting Protocol'!$N12:$N109)</f>
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <f>SUMPRODUCT('Meeting Protocol'!M12:M109, 'Meeting Protocol'!$N12:$N109)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="40" t="s">
+      <c r="B9">
+        <f>SUMPRODUCT('Meeting Protocol'!H14:H117, 'Meeting Protocol'!$O14:$O117)</f>
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <f>SUMPRODUCT('Meeting Protocol'!I14:I117, 'Meeting Protocol'!$O14:$O117)</f>
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <f>SUMPRODUCT('Meeting Protocol'!J14:J117, 'Meeting Protocol'!$O14:$O117)</f>
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <f>SUMPRODUCT('Meeting Protocol'!K14:K117, 'Meeting Protocol'!$O14:$O117)</f>
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <f>SUMPRODUCT('Meeting Protocol'!L14:L117, 'Meeting Protocol'!$O14:$O117)</f>
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <f>SUMPRODUCT('Meeting Protocol'!M14:M117, 'Meeting Protocol'!$O14:$O117)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="40" t="s">
         <v>29</v>
-      </c>
-      <c r="B9">
-        <f>SUMPRODUCT('Meeting Protocol'!H12:H109, 'Meeting Protocol'!$O12:$O109)</f>
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <f>SUMPRODUCT('Meeting Protocol'!I12:I109, 'Meeting Protocol'!$O12:$O109)</f>
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <f>SUMPRODUCT('Meeting Protocol'!J12:J109, 'Meeting Protocol'!$O12:$O109)</f>
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <f>SUMPRODUCT('Meeting Protocol'!K12:K109, 'Meeting Protocol'!$O12:$O109)</f>
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <f>SUMPRODUCT('Meeting Protocol'!L12:L109, 'Meeting Protocol'!$O12:$O109)</f>
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <f>SUMPRODUCT('Meeting Protocol'!M12:M109, 'Meeting Protocol'!$O12:$O109)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="40" t="s">
-        <v>30</v>
       </c>
       <c r="B10">
         <f t="shared" ref="B10:G10" si="0">$B2-B8</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="40" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B11">
         <f t="shared" ref="B11:G11" si="1">ROUND(((B7+1)*(B10+1)/(B9+1))-1,0)</f>
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="C11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="D11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="E11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="F11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="G11">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="41">
+        <f t="shared" ref="B12:G12" si="2">B7/$B14</f>
+        <v>9.6774193548387094E-2</v>
+      </c>
+      <c r="C12" s="41">
+        <f t="shared" si="2"/>
+        <v>0.25806451612903225</v>
+      </c>
+      <c r="D12" s="41">
+        <f t="shared" si="2"/>
+        <v>0.12903225806451613</v>
+      </c>
+      <c r="E12" s="41">
+        <f t="shared" si="2"/>
+        <v>0.16129032258064516</v>
+      </c>
+      <c r="F12" s="41">
+        <f t="shared" si="2"/>
+        <v>6.4516129032258063E-2</v>
+      </c>
+      <c r="G12" s="41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="40" t="s">
         <v>32</v>
-      </c>
-      <c r="B12" s="41" t="e">
-        <f t="shared" ref="B12:G12" si="2">B7/$B14</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C12" s="41" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D12" s="41" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E12" s="41" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F12" s="41" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G12" s="41" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="40" t="s">
-        <v>33</v>
       </c>
       <c r="B14">
         <f t="array" ref="B14">INDEX(B11:G11, 1, MATCH(MAX(B8:G8), B8:G8, 0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="62" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="47"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="71" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="56"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="1">
